--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3760" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="6780" yWindow="2060" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="204">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -290,15 +290,6 @@
     <t>foodBonus_3</t>
   </si>
   <si>
-    <t>taxesBonus_1</t>
-  </si>
-  <si>
-    <t>taxesBonus_2</t>
-  </si>
-  <si>
-    <t>taxesBonus_3</t>
-  </si>
-  <si>
     <t>citizenBonus_1</t>
   </si>
   <si>
@@ -611,10 +602,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>taxesBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>citizenBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -708,6 +695,30 @@
   </si>
   <si>
     <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2365,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G16" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -2402,18 +2413,18 @@
         <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>44</v>
@@ -2437,7 +2448,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2466,7 +2477,7 @@
         <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2495,7 +2506,7 @@
         <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2524,7 +2535,7 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2553,7 +2564,7 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2582,7 +2593,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2611,7 +2622,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2640,7 +2651,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2669,7 +2680,7 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2683,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -2698,7 +2709,7 @@
         <v>200</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2727,7 +2738,7 @@
         <v>200</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2756,7 +2767,7 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2785,7 +2796,7 @@
         <v>200</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2814,7 +2825,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2843,12 +2854,12 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" s="7">
         <v>20</v>
@@ -2872,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -2901,7 +2912,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -2930,7 +2941,7 @@
         <v>200</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -2959,7 +2970,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -2988,7 +2999,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -3017,7 +3028,7 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -3025,7 +3036,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -3046,7 +3057,7 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -3054,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -3075,7 +3086,7 @@
         <v>200</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -3083,7 +3094,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -3104,7 +3115,7 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -3112,7 +3123,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
@@ -3133,7 +3144,7 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -3141,7 +3152,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -3162,7 +3173,7 @@
         <v>200</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -3170,7 +3181,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -3191,7 +3202,7 @@
         <v>200</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -3199,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
@@ -3220,7 +3231,7 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -3249,7 +3260,7 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -3278,7 +3289,7 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -3307,7 +3318,7 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -3336,7 +3347,7 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -3365,7 +3376,7 @@
         <v>200</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -3394,7 +3405,7 @@
         <v>200</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -3423,7 +3434,7 @@
         <v>200</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -3452,7 +3463,7 @@
         <v>200</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -3481,7 +3492,7 @@
         <v>200</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -3510,7 +3521,7 @@
         <v>200</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -3539,7 +3550,7 @@
         <v>200</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -3568,7 +3579,7 @@
         <v>200</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3587,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3607,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>40</v>
@@ -3625,13 +3636,13 @@
         <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -3642,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3663,7 +3674,7 @@
         <v>200</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
@@ -3674,7 +3685,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3686,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -3695,7 +3706,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
@@ -3706,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3727,7 +3738,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
@@ -3738,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3750,7 +3761,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H5" s="1">
         <v>200</v>
@@ -3759,7 +3770,7 @@
         <v>200</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
@@ -3770,7 +3781,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3782,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1">
         <v>200</v>
@@ -3791,7 +3802,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
@@ -3802,7 +3813,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3814,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H7" s="1">
         <v>200</v>
@@ -3823,7 +3834,7 @@
         <v>200</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
@@ -3834,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3846,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1">
         <v>200</v>
@@ -3855,7 +3866,7 @@
         <v>200</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
@@ -3866,7 +3877,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -3887,7 +3898,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
@@ -3898,7 +3909,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -3919,7 +3930,7 @@
         <v>200</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
@@ -3930,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -3942,7 +3953,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H11" s="1">
         <v>200</v>
@@ -3951,7 +3962,7 @@
         <v>200</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
@@ -3962,7 +3973,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
@@ -3983,7 +3994,7 @@
         <v>200</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
@@ -3994,7 +4005,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -4015,7 +4026,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
@@ -4026,7 +4037,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -4038,7 +4049,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H14" s="1">
         <v>200</v>
@@ -4047,7 +4058,7 @@
         <v>200</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
@@ -4058,7 +4069,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
@@ -4079,7 +4090,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
@@ -4090,7 +4101,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
@@ -4111,7 +4122,7 @@
         <v>200</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
@@ -4122,7 +4133,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -4134,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="1">
         <v>200</v>
@@ -4143,7 +4154,7 @@
         <v>200</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
@@ -4154,7 +4165,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -4175,7 +4186,7 @@
         <v>200</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
@@ -4186,7 +4197,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
@@ -4207,7 +4218,7 @@
         <v>200</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
@@ -4218,7 +4229,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -4230,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H20" s="1">
         <v>200</v>
@@ -4239,7 +4250,7 @@
         <v>200</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
@@ -4250,7 +4261,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -4271,7 +4282,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
@@ -4282,7 +4293,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
@@ -4303,18 +4314,18 @@
         <v>200</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -4326,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1">
         <v>200</v>
@@ -4335,18 +4346,18 @@
         <v>200</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -4367,18 +4378,18 @@
         <v>200</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -4399,18 +4410,18 @@
         <v>200</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
@@ -4422,7 +4433,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H26" s="1">
         <v>200</v>
@@ -4431,18 +4442,18 @@
         <v>200</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
@@ -4463,18 +4474,18 @@
         <v>200</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="7">
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
@@ -4495,18 +4506,18 @@
         <v>200</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
@@ -4518,7 +4529,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H29" s="1">
         <v>200</v>
@@ -4527,18 +4538,18 @@
         <v>200</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1">
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
@@ -4559,18 +4570,18 @@
         <v>200</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B31" s="7">
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
@@ -4591,18 +4602,18 @@
         <v>200</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -4614,7 +4625,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H32" s="1">
         <v>200</v>
@@ -4623,24 +4634,24 @@
         <v>200</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1">
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
@@ -4655,24 +4666,24 @@
         <v>200</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="7">
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
@@ -4687,18 +4698,18 @@
         <v>200</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -4710,7 +4721,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H35" s="1">
         <v>200</v>
@@ -4719,18 +4730,18 @@
         <v>200</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1">
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -4751,18 +4762,18 @@
         <v>200</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" s="7">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
@@ -4783,18 +4794,18 @@
         <v>200</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1">
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
@@ -4806,7 +4817,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1">
         <v>200</v>
@@ -4815,18 +4826,18 @@
         <v>200</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1">
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
@@ -4847,18 +4858,18 @@
         <v>200</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="7">
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -4879,18 +4890,18 @@
         <v>200</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -4902,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1">
         <v>200</v>
@@ -4911,18 +4922,18 @@
         <v>200</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1">
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
@@ -4943,18 +4954,18 @@
         <v>200</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" s="7">
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
@@ -4975,18 +4986,18 @@
         <v>200</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
@@ -4998,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H44" s="1">
         <v>200</v>
@@ -5007,18 +5018,18 @@
         <v>200</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1">
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
@@ -5039,18 +5050,18 @@
         <v>200</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B46" s="7">
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
@@ -5071,18 +5082,18 @@
         <v>200</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -5094,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H47" s="1">
         <v>200</v>
@@ -5103,18 +5114,18 @@
         <v>200</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1">
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
@@ -5135,18 +5146,18 @@
         <v>200</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" s="7">
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
@@ -5167,18 +5178,18 @@
         <v>200</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -5190,7 +5201,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H50" s="1">
         <v>200</v>
@@ -5199,18 +5210,18 @@
         <v>200</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1">
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -5231,18 +5242,18 @@
         <v>200</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" s="7">
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
@@ -5263,18 +5274,18 @@
         <v>200</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
@@ -5286,7 +5297,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H53" s="1">
         <v>200</v>
@@ -5295,18 +5306,18 @@
         <v>200</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1">
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
@@ -5327,18 +5338,18 @@
         <v>200</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="7">
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
@@ -5359,7 +5370,7 @@
         <v>200</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5413,18 +5424,18 @@
         <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -5439,7 +5450,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -5448,12 +5459,12 @@
         <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5462,13 +5473,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -5477,12 +5488,12 @@
         <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -5506,12 +5517,12 @@
         <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -5526,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -5535,12 +5546,12 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -5555,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -5564,12 +5575,12 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -5584,7 +5595,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -5593,12 +5604,12 @@
         <v>200</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
@@ -5613,7 +5624,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -5622,12 +5633,12 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -5636,13 +5647,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -5651,12 +5662,12 @@
         <v>200</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -5665,7 +5676,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -5680,12 +5691,12 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -5700,7 +5711,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -5709,12 +5720,12 @@
         <v>200</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -5729,7 +5740,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1">
         <v>200</v>
@@ -5738,12 +5749,12 @@
         <v>200</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1">
         <v>150</v>
@@ -5767,12 +5778,12 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
@@ -5787,7 +5798,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -5796,12 +5807,12 @@
         <v>200</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B15" s="7">
         <v>1500</v>
@@ -5816,7 +5827,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1">
         <v>200</v>
@@ -5825,12 +5836,12 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -5839,7 +5850,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -5854,12 +5865,12 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -5868,13 +5879,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -5883,12 +5894,12 @@
         <v>200</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -5903,7 +5914,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1">
         <v>200</v>
@@ -5912,12 +5923,12 @@
         <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -5932,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -5941,12 +5952,12 @@
         <v>200</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1">
         <v>150</v>
@@ -5961,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1">
         <v>200</v>
@@ -5970,12 +5981,12 @@
         <v>200</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1">
         <v>500</v>
@@ -5990,7 +6001,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1">
         <v>200</v>
@@ -5999,12 +6010,12 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="7">
         <v>1500</v>
@@ -6028,12 +6039,12 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
@@ -6042,13 +6053,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1">
         <v>200</v>
@@ -6057,12 +6068,12 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -6071,13 +6082,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1">
         <v>200</v>
@@ -6086,12 +6097,12 @@
         <v>200</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
@@ -6115,12 +6126,12 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1">
         <v>150</v>
@@ -6135,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1">
         <v>200</v>
@@ -6144,12 +6155,12 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
@@ -6164,7 +6175,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1">
         <v>200</v>
@@ -6173,12 +6184,12 @@
         <v>200</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1">
         <v>1500</v>
@@ -6193,7 +6204,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1">
         <v>200</v>
@@ -6202,12 +6213,12 @@
         <v>200</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B29" s="7">
         <v>4500</v>
@@ -6222,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G29" s="1">
         <v>200</v>
@@ -6231,12 +6242,12 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" s="1">
         <v>0.3</v>
@@ -6245,13 +6256,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" s="1">
         <v>200</v>
@@ -6260,12 +6271,12 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -6289,12 +6300,12 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1">
         <v>15</v>
@@ -6309,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G32" s="1">
         <v>200</v>
@@ -6318,12 +6329,12 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
@@ -6332,13 +6343,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G33" s="1">
         <v>200</v>
@@ -6347,12 +6358,12 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1">
         <v>200</v>
@@ -6361,13 +6372,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1">
         <v>200</v>
@@ -6376,12 +6387,12 @@
         <v>200</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B35" s="1">
         <v>600</v>
@@ -6396,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G35" s="1">
         <v>200</v>
@@ -6405,12 +6416,12 @@
         <v>200</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B36" s="7">
         <v>7</v>
@@ -6425,7 +6436,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G36" s="1">
         <v>200</v>
@@ -6434,12 +6445,12 @@
         <v>200</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B37" s="7">
         <v>30</v>
@@ -6454,7 +6465,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1">
         <v>200</v>
@@ -6463,12 +6474,12 @@
         <v>200</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
@@ -6483,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1">
         <v>200</v>
@@ -6492,12 +6503,12 @@
         <v>200</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B39" s="1">
         <v>250</v>
@@ -6512,7 +6523,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1">
         <v>200</v>
@@ -6521,7 +6532,7 @@
         <v>200</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -6594,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -6609,18 +6620,18 @@
         <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6635,7 +6646,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -6644,12 +6655,12 @@
         <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6664,7 +6675,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -6673,12 +6684,12 @@
         <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6693,7 +6704,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -6702,12 +6713,12 @@
         <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -6722,7 +6733,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -6731,12 +6742,12 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -6751,7 +6762,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -6760,12 +6771,12 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -6780,7 +6791,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -6789,12 +6800,12 @@
         <v>200</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -6809,7 +6820,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -6818,12 +6829,12 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -6838,7 +6849,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -6847,12 +6858,12 @@
         <v>200</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -6867,7 +6878,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -6876,12 +6887,12 @@
         <v>200</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -6896,7 +6907,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -6905,7 +6916,7 @@
         <v>200</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7028,7 +7039,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7038,15 +7049,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
@@ -7054,7 +7065,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1">
         <v>0.25</v>
@@ -7062,7 +7073,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -7070,7 +7081,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -7078,7 +7089,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -7086,7 +7097,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="7">
         <v>0.5</v>
@@ -7094,7 +7105,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B8" s="7">
         <v>0.5</v>
@@ -7102,7 +7113,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -7110,7 +7121,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="7">
         <v>0.5</v>
@@ -7118,7 +7129,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
@@ -7126,7 +7137,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
@@ -7134,7 +7145,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
@@ -7142,7 +7153,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1">
         <v>0.3</v>
@@ -7150,7 +7161,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
@@ -7158,7 +7169,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1">
         <v>0.3</v>
@@ -7166,7 +7177,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -7174,7 +7185,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" s="1">
         <v>0.3</v>
@@ -7182,7 +7193,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B19" s="1">
         <v>0.3</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2060" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="231">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL_isSellInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_price</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -196,29 +192,582 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender_1</t>
+  </si>
+  <si>
+    <t>masterOfDefender_2</t>
+  </si>
+  <si>
+    <t>masterOfDefender_3</t>
+  </si>
+  <si>
+    <t>quarterMaster_1</t>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
+  </si>
+  <si>
+    <t>quarterMaster_3</t>
+  </si>
+  <si>
+    <t>fogOfTrick_1</t>
+  </si>
+  <si>
+    <t>fogOfTrick_2</t>
+  </si>
+  <si>
+    <t>fogOfTrick_3</t>
+  </si>
+  <si>
+    <t>woodBonus_1</t>
+  </si>
+  <si>
+    <t>woodBonus_2</t>
+  </si>
+  <si>
+    <t>woodBonus_3</t>
+  </si>
+  <si>
+    <t>stoneBonus_1</t>
+  </si>
+  <si>
+    <t>stoneBonus_2</t>
+  </si>
+  <si>
+    <t>stoneBonus_3</t>
+  </si>
+  <si>
+    <t>ironBonus_1</t>
+  </si>
+  <si>
+    <t>ironBonus_2</t>
+  </si>
+  <si>
+    <t>ironBonus_3</t>
+  </si>
+  <si>
+    <t>foodBonus_1</t>
+  </si>
+  <si>
+    <t>foodBonus_2</t>
+  </si>
+  <si>
+    <t>foodBonus_3</t>
+  </si>
+  <si>
+    <t>citizenBonus_1</t>
+  </si>
+  <si>
+    <t>citizenBonus_2</t>
+  </si>
+  <si>
+    <t>citizenBonus_3</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_3</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_1</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_2</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_3</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_3</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_1</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_2</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_3</t>
+  </si>
+  <si>
+    <t>unitHpBonus_1</t>
+  </si>
+  <si>
+    <t>unitHpBonus_2</t>
+  </si>
+  <si>
+    <t>unitHpBonus_3</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_1</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_2</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_3</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_1</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_2</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_3</t>
+  </si>
+  <si>
+    <t>woodClass_1</t>
+  </si>
+  <si>
+    <t>woodClass_2</t>
+  </si>
+  <si>
+    <t>woodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_4</t>
+  </si>
+  <si>
+    <t>woodClass_5</t>
+  </si>
+  <si>
+    <t>woodClass_6</t>
+  </si>
+  <si>
+    <t>woodClass_7</t>
+  </si>
+  <si>
+    <t>stoneClass_1</t>
+  </si>
+  <si>
+    <t>stoneClass_2</t>
+  </si>
+  <si>
+    <t>stoneClass_3</t>
+  </si>
+  <si>
+    <t>stoneClass_4</t>
+  </si>
+  <si>
+    <t>stoneClass_5</t>
+  </si>
+  <si>
+    <t>stoneClass_6</t>
+  </si>
+  <si>
+    <t>stoneClass_7</t>
+  </si>
+  <si>
+    <t>ironClass_1</t>
+  </si>
+  <si>
+    <t>ironClass_2</t>
+  </si>
+  <si>
+    <t>ironClass_3</t>
+  </si>
+  <si>
+    <t>ironClass_4</t>
+  </si>
+  <si>
+    <t>ironClass_5</t>
+  </si>
+  <si>
+    <t>ironClass_6</t>
+  </si>
+  <si>
+    <t>ironClass_7</t>
+  </si>
+  <si>
+    <t>foodClass_1</t>
+  </si>
+  <si>
+    <t>foodClass_2</t>
+  </si>
+  <si>
+    <t>foodClass_3</t>
+  </si>
+  <si>
+    <t>foodClass_4</t>
+  </si>
+  <si>
+    <t>foodClass_5</t>
+  </si>
+  <si>
+    <t>foodClass_6</t>
+  </si>
+  <si>
+    <t>foodClass_7</t>
+  </si>
+  <si>
+    <t>coinClass_1</t>
+  </si>
+  <si>
+    <t>coinClass_2</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>coinClass_4</t>
+  </si>
+  <si>
+    <t>coinClass_5</t>
+  </si>
+  <si>
+    <t>coinClass_6</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_2</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_3</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_4</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>speedup_5</t>
+  </si>
+  <si>
+    <t>speedup_6</t>
+  </si>
+  <si>
+    <t>speedup_7</t>
+  </si>
+  <si>
+    <t>speedup_8</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isAdvancedItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buyPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6:9,dragonMaterials:redCrystal_1:6:9,dragonMaterials:blueCrystal_1:6:9,dragonMaterials:greenCrystal_1:6:9,dragonMaterials:runes_1:6:8,dragonMaterials:ingo_2:2:7,dragonMaterials:redSoul_2:2:7,dragonMaterials:blueSoul_2:2:7,dragonMaterials:greenSoul_2:2:7,dragonMaterials:redCrystal_2:2:7,dragonMaterials:blueCrystal_2:2:7,dragonMaterials:greenCrystal_2:2:7,dragonMaterials:runes_2:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:20:20,resource:stoneClass_2:20:20,resource:ironClass_2:20:20,resource:foodClass_2:20:20,resource:coinClass_2:15:10,speedup:speedup_1:30:5,speedup:speedup_2:20:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:15:14,resource:stoneClass_3:15:14,resource:ironClass_3:15:14,resource:foodClass_3:15:14,resource:coinClass_3:5:10,resource:casinoTokenClass_1:2:16,speedup:speedup_3:8:16,speedup:speedup_4:5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:5:16,resource:stoneClass_4:5:16,resource:ironClass_4:5:16,resource:foodClass_4:5:16,resource:coinClass_4:5:10,resource:casinoTokenClass_1:2:10,speedup:speedup_4:8:10,speedup:speedup_5:5:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_6:5:14,resource:stoneClass_6:5:14,resource:ironClass_6:5:14,resource:foodClass_6:5:14,resource:coinClass_6:5:18,resource:casinoTokenClass_1:5:10,speedup:speedup_5:5:10,speedup:speedup_6:5:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -227,486 +776,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>masterOfDefender_1</t>
-  </si>
-  <si>
-    <t>masterOfDefender_2</t>
-  </si>
-  <si>
-    <t>masterOfDefender_3</t>
-  </si>
-  <si>
-    <t>quarterMaster_1</t>
-  </si>
-  <si>
-    <t>quarterMaster_2</t>
-  </si>
-  <si>
-    <t>quarterMaster_3</t>
-  </si>
-  <si>
-    <t>fogOfTrick_1</t>
-  </si>
-  <si>
-    <t>fogOfTrick_2</t>
-  </si>
-  <si>
-    <t>fogOfTrick_3</t>
-  </si>
-  <si>
-    <t>woodBonus_1</t>
-  </si>
-  <si>
-    <t>woodBonus_2</t>
-  </si>
-  <si>
-    <t>woodBonus_3</t>
-  </si>
-  <si>
-    <t>stoneBonus_1</t>
-  </si>
-  <si>
-    <t>stoneBonus_2</t>
-  </si>
-  <si>
-    <t>stoneBonus_3</t>
-  </si>
-  <si>
-    <t>ironBonus_1</t>
-  </si>
-  <si>
-    <t>ironBonus_2</t>
-  </si>
-  <si>
-    <t>ironBonus_3</t>
-  </si>
-  <si>
-    <t>foodBonus_1</t>
-  </si>
-  <si>
-    <t>foodBonus_2</t>
-  </si>
-  <si>
-    <t>foodBonus_3</t>
-  </si>
-  <si>
-    <t>citizenBonus_1</t>
-  </si>
-  <si>
-    <t>citizenBonus_2</t>
-  </si>
-  <si>
-    <t>citizenBonus_3</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_3</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_1</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_2</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_3</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_3</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_1</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_2</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_3</t>
-  </si>
-  <si>
-    <t>unitHpBonus_1</t>
-  </si>
-  <si>
-    <t>unitHpBonus_2</t>
-  </si>
-  <si>
-    <t>unitHpBonus_3</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_1</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_2</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_3</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_1</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_2</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_3</t>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_1</t>
-  </si>
-  <si>
-    <t>woodClass_2</t>
-  </si>
-  <si>
-    <t>woodClass_3</t>
-  </si>
-  <si>
-    <t>woodClass_4</t>
-  </si>
-  <si>
-    <t>woodClass_5</t>
-  </si>
-  <si>
-    <t>woodClass_6</t>
-  </si>
-  <si>
-    <t>woodClass_7</t>
-  </si>
-  <si>
-    <t>stoneClass_1</t>
-  </si>
-  <si>
-    <t>stoneClass_2</t>
-  </si>
-  <si>
-    <t>stoneClass_3</t>
-  </si>
-  <si>
-    <t>stoneClass_4</t>
-  </si>
-  <si>
-    <t>stoneClass_5</t>
-  </si>
-  <si>
-    <t>stoneClass_6</t>
-  </si>
-  <si>
-    <t>stoneClass_7</t>
-  </si>
-  <si>
-    <t>ironClass_1</t>
-  </si>
-  <si>
-    <t>ironClass_2</t>
-  </si>
-  <si>
-    <t>ironClass_3</t>
-  </si>
-  <si>
-    <t>ironClass_4</t>
-  </si>
-  <si>
-    <t>ironClass_5</t>
-  </si>
-  <si>
-    <t>ironClass_6</t>
-  </si>
-  <si>
-    <t>ironClass_7</t>
-  </si>
-  <si>
-    <t>foodClass_1</t>
-  </si>
-  <si>
-    <t>foodClass_2</t>
-  </si>
-  <si>
-    <t>foodClass_3</t>
-  </si>
-  <si>
-    <t>foodClass_4</t>
-  </si>
-  <si>
-    <t>foodClass_5</t>
-  </si>
-  <si>
-    <t>foodClass_6</t>
-  </si>
-  <si>
-    <t>foodClass_7</t>
-  </si>
-  <si>
-    <t>coinClass_1</t>
-  </si>
-  <si>
-    <t>coinClass_2</t>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-  </si>
-  <si>
-    <t>coinClass_4</t>
-  </si>
-  <si>
-    <t>coinClass_5</t>
-  </si>
-  <si>
-    <t>coinClass_6</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_2</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_3</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_4</t>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_4</t>
-  </si>
-  <si>
-    <t>speedup_5</t>
-  </si>
-  <si>
-    <t>speedup_6</t>
-  </si>
-  <si>
-    <t>speedup_7</t>
-  </si>
-  <si>
-    <t>speedup_8</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1:14,resource:stoneClass_3:1:14,resource:ironClass_3:1:14,resource:foodClass_3:1:14,resource:coinClass_2:1:11,resource:casinoTokenClass_1:1:11,speedup:speedup_3:2:11,speedup:speedup_4:1:11</t>
-  </si>
-  <si>
-    <t>resource:woodClass_4:1:14,resource:stoneClass_4:1:14,resource:ironClass_4:1:14,resource:foodClass_4:1:14,resource:coinClass_4:1:11,resource:casinoTokenClass_1:2:11,speedup:speedup_4:2:11,speedup:speedup_5:1:11</t>
-  </si>
-  <si>
-    <t>resource:woodClass_6:1:14,resource:stoneClass_6:1:14,resource:ironClass_6:1:14,resource:foodClass_6:1:14,resource:coinClass_5:1:11,resource:casinoTokenClass_2:2:11,speedup:speedup_5:3:11,speedup:speedup_6:2:11</t>
-  </si>
-  <si>
-    <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:5:12,dragonMaterials:redSoul_2:5:10,dragonMaterials:blueSoul_2:5:10,dragonMaterials:greenSoul_2:5:10,dragonMaterials:redCrystal_2:5:11,dragonMaterials:blueCrystal_2:5:11,dragonMaterials:greenCrystal_2:5:11,dragonMaterials:runes_2:5:11,dragonMaterials:ingo_3:2:1,dragonMaterials:redSoul_3:2:2,dragonMaterials:blueSoul_3:2:2,dragonMaterials:greenSoul_3:2:2,dragonMaterials:redCrystal_3:2:2,dragonMaterials:blueCrystal_3:2:2,dragonMaterials:greenCrystal_3:2:2,dragonMaterials:runes_3:2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:12,dragonMaterials:redSoul_3:5:10,dragonMaterials:blueSoul_3:5:10,dragonMaterials:greenSoul_3:5:10,dragonMaterials:redCrystal_3:5:11,dragonMaterials:blueCrystal_3:5:11,dragonMaterials:greenCrystal_3:5:11,dragonMaterials:runes_3:5:11,dragonMaterials:ingo_4:2:1,dragonMaterials:redSoul_4:2:2,dragonMaterials:blueSoul_4:2:2,dragonMaterials:greenSoul_4:2:2,dragonMaterials:redCrystal_4:2:2,dragonMaterials:blueCrystal_4:2:2,dragonMaterials:greenCrystal_4:2:2,dragonMaterials:runes_4:2:1</t>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:5:14,dragonMaterials:redCrystal_1:5:14,dragonMaterials:blueCrystal_1:5:14,dragonMaterials:greenCrystal_1:5:14,dragonMaterials:runes_1:5:14,dragonMaterials:ingo_2:5:3,dragonMaterials:redSoul_2:2:4,dragonMaterials:blueSoul_2:2:4,dragonMaterials:greenSoul_2:2:4,dragonMaterials:redCrystal_2:2:4,dragonMaterials:blueCrystal_2:2:4,dragonMaterials:greenCrystal_2:2:4,dragonMaterials:runes_2:2:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fogOfTrick</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isAdvancedItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_sellPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_buyPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -875,7 +989,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="508">
+  <cellStyleXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -890,6 +1004,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,7 +1551,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="508">
+  <cellStyles count="526">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1676,6 +1808,15 @@
     <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1925,6 +2066,15 @@
     <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2374,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G16" sqref="G1:H1048576"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2386,14 +2536,12 @@
     <col min="2" max="2" width="20.6640625" style="7"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="8" width="20.6640625" style="1"/>
-    <col min="9" max="9" width="20.6640625" style="5"/>
-    <col min="10" max="16384" width="20.6640625" style="1"/>
+    <col min="5" max="7" width="20.6640625" style="1"/>
+    <col min="8" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2407,172 +2555,154 @@
         <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
+      <c r="D2" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>400</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20000</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>20000</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>1500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>75000</v>
       </c>
       <c r="G3" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
+      <c r="F5" s="1">
+        <v>10000</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25000</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>25000</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2581,27 +2711,24 @@
         <v>47</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50000</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>100</v>
+        <v>50000</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -2610,143 +2737,128 @@
         <v>47</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>52</v>
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100000</v>
       </c>
       <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>500</v>
+        <v>100000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
+      <c r="F11" s="1">
+        <v>5000</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>5000</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="7">
-        <v>500</v>
-      </c>
-      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>250</v>
       </c>
       <c r="G12" s="1">
-        <v>200</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>250</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="7">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -2757,692 +2869,620 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
+      <c r="F13" s="1">
+        <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>500</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="7">
-        <v>100</v>
+        <v>1440</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>250</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12500</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12500</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="7">
-        <v>500</v>
+        <v>10080</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>75000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43200</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1">
-        <v>200</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7">
+        <v>300</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1">
+        <v>400</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7">
         <v>1000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1">
-        <v>200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="7">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1">
-        <v>200</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="1">
-        <v>200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>200</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>100</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50000</v>
       </c>
       <c r="G19" s="1">
-        <v>200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>50000</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="7">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>47</v>
+        <v>5000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>250000</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
-      </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
-        <v>500</v>
+        <v>250000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1">
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1">
         <v>200</v>
       </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="F23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="1">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1">
-        <v>200</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1">
-        <v>200</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="1">
-        <v>200</v>
-      </c>
-      <c r="H25" s="1">
-        <v>200</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>24</v>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>50</v>
+        <v>500</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25000</v>
       </c>
       <c r="G26" s="1">
-        <v>200</v>
-      </c>
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>157</v>
+        <v>25000</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1000</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10000</v>
       </c>
       <c r="G27" s="1">
-        <v>200</v>
-      </c>
-      <c r="H27" s="1">
-        <v>200</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="2">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>950</v>
+      </c>
+      <c r="F28" s="1">
+        <v>47500</v>
       </c>
       <c r="G28" s="1">
-        <v>200</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="2">
+        <v>47500</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7">
+        <v>25000</v>
+      </c>
+      <c r="C29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>4500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>225000</v>
       </c>
       <c r="G29" s="1">
-        <v>200</v>
-      </c>
-      <c r="H29" s="1">
-        <v>200</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1">
+        <v>225000</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7">
+        <v>500</v>
+      </c>
+      <c r="C30" s="2">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>150</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7500</v>
       </c>
       <c r="G30" s="1">
-        <v>200</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
+        <v>7500</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1500</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>48</v>
+        <v>440</v>
+      </c>
+      <c r="F31" s="1">
+        <v>22000</v>
       </c>
       <c r="G31" s="1">
-        <v>200</v>
-      </c>
-      <c r="H31" s="1">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>44</v>
+        <v>22000</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5000</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>48</v>
+        <v>1400</v>
+      </c>
+      <c r="F32" s="1">
+        <v>70000</v>
       </c>
       <c r="G32" s="1">
-        <v>200</v>
-      </c>
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>70000</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>48</v>
+        <v>400</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20000</v>
       </c>
       <c r="G33" s="1">
-        <v>200</v>
-      </c>
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
+        <v>20000</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C34" s="2">
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>46</v>
+        <v>1900</v>
+      </c>
+      <c r="F34" s="1">
+        <v>95000</v>
       </c>
       <c r="G34" s="1">
-        <v>200</v>
-      </c>
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>95000</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B35" s="7">
-        <v>1440</v>
-      </c>
-      <c r="C35" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>46</v>
+        <v>9000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>450000</v>
       </c>
       <c r="G35" s="1">
-        <v>200</v>
-      </c>
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>34</v>
+        <v>450000</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B36" s="7">
-        <v>10080</v>
-      </c>
-      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>48</v>
+        <v>450</v>
+      </c>
+      <c r="F36" s="1">
+        <v>22500</v>
       </c>
       <c r="G36" s="1">
-        <v>200</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>22500</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B37" s="7">
-        <v>43200</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -3451,24 +3491,21 @@
         <v>45</v>
       </c>
       <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>48</v>
+        <v>900</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45000</v>
       </c>
       <c r="G37" s="1">
-        <v>200</v>
-      </c>
-      <c r="H37" s="1">
-        <v>200</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>45000</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B38" s="7">
         <v>100</v>
@@ -3480,27 +3517,24 @@
         <v>45</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>46</v>
+        <v>1500</v>
+      </c>
+      <c r="F38" s="1">
+        <v>75000</v>
       </c>
       <c r="G38" s="1">
-        <v>200</v>
-      </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>75000</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B39" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -3509,77 +3543,68 @@
         <v>45</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>47</v>
+        <v>150</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7500</v>
       </c>
       <c r="G39" s="1">
-        <v>200</v>
-      </c>
-      <c r="H39" s="1">
-        <v>200</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>38</v>
+        <v>7500</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B40" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C40" s="2">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>48</v>
+        <v>700</v>
+      </c>
+      <c r="F40" s="1">
+        <v>35000</v>
       </c>
       <c r="G40" s="1">
-        <v>200</v>
-      </c>
-      <c r="H40" s="1">
-        <v>200</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>35000</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B41" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>48</v>
+        <v>3500</v>
+      </c>
+      <c r="F41" s="1">
+        <v>175000</v>
       </c>
       <c r="G41" s="1">
-        <v>200</v>
-      </c>
-      <c r="H41" s="1">
-        <v>200</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>192</v>
+        <v>175000</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3596,32 +3621,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="4" width="20.6640625" style="1"/>
     <col min="5" max="5" width="20.6640625" style="5"/>
-    <col min="6" max="6" width="20.6640625" style="1"/>
-    <col min="7" max="7" width="20.6640625" style="5"/>
-    <col min="8" max="9" width="20.6640625" style="1"/>
-    <col min="10" max="10" width="20.6640625" style="5"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
+    <col min="6" max="8" width="20.6640625" style="1"/>
+    <col min="9" max="9" width="20.6640625" style="5"/>
+    <col min="10" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>40</v>
@@ -3630,126 +3653,114 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
+      <c r="E2" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>900</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45000</v>
       </c>
       <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1">
-        <v>200</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+        <v>45000</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>1800</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90000</v>
       </c>
       <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1">
-        <v>200</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+        <v>90000</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>3600</v>
+      </c>
+      <c r="G4" s="1">
+        <v>180000</v>
       </c>
       <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>200</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+        <v>180000</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3758,94 +3769,85 @@
         <v>47</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25000</v>
       </c>
       <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="1">
-        <v>200</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>106</v>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1">
-        <v>200</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>106</v>
+        <v>2000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100000</v>
       </c>
       <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="1">
-        <v>200</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3854,94 +3856,85 @@
         <v>47</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>108</v>
+        <v>600</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30000</v>
       </c>
       <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="1">
-        <v>200</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>60000</v>
       </c>
       <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>200</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7">
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>120000</v>
       </c>
       <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="1">
-        <v>200</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -3950,1427 +3943,1292 @@
         <v>47</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25000</v>
       </c>
       <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1">
-        <v>200</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50000</v>
       </c>
       <c r="H12" s="1">
-        <v>200</v>
-      </c>
-      <c r="I12" s="1">
-        <v>200</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7">
         <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100000</v>
       </c>
       <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="1">
-        <v>200</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25000</v>
       </c>
       <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="1">
-        <v>200</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50000</v>
       </c>
       <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="1">
-        <v>200</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7">
         <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>47</v>
+      <c r="E16" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100000</v>
       </c>
       <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" s="1">
-        <v>200</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25000</v>
       </c>
       <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="1">
-        <v>200</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>47</v>
+      <c r="E18" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>50000</v>
       </c>
       <c r="H18" s="1">
-        <v>200</v>
-      </c>
-      <c r="I18" s="1">
-        <v>200</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7">
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>47</v>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100000</v>
       </c>
       <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>200</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7">
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G20" s="1">
+        <v>25000</v>
       </c>
       <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="1">
-        <v>200</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
+      <c r="E21" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50000</v>
       </c>
       <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="1">
-        <v>200</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7">
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>47</v>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100000</v>
       </c>
       <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="1">
-        <v>200</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>107</v>
+        <v>600</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30000</v>
       </c>
       <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="1">
-        <v>200</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>202</v>
+        <v>30000</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>47</v>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G24" s="1">
+        <v>60000</v>
       </c>
       <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="1">
-        <v>200</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>47</v>
+      <c r="E25" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G25" s="1">
+        <v>120000</v>
       </c>
       <c r="H25" s="1">
-        <v>200</v>
-      </c>
-      <c r="I25" s="1">
-        <v>200</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>107</v>
+        <v>400</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20000</v>
       </c>
       <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="1">
-        <v>200</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>47</v>
+      <c r="E27" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>800</v>
+      </c>
+      <c r="G27" s="1">
+        <v>40000</v>
       </c>
       <c r="H27" s="1">
-        <v>200</v>
-      </c>
-      <c r="I27" s="1">
-        <v>200</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+        <v>40000</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B28" s="7">
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>47</v>
+      <c r="E28" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>48</v>
+        <v>1600</v>
+      </c>
+      <c r="G28" s="1">
+        <v>80000</v>
       </c>
       <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="1">
-        <v>200</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+        <v>80000</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>107</v>
+        <v>1600</v>
+      </c>
+      <c r="G29" s="1">
+        <v>80000</v>
       </c>
       <c r="H29" s="1">
-        <v>200</v>
-      </c>
-      <c r="I29" s="1">
-        <v>200</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+        <v>80000</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>47</v>
+      <c r="E30" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>48</v>
+        <v>3200</v>
+      </c>
+      <c r="G30" s="1">
+        <v>160000</v>
       </c>
       <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="1">
-        <v>200</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+        <v>160000</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7">
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>47</v>
+      <c r="E31" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>48</v>
+        <v>6400</v>
+      </c>
+      <c r="G31" s="1">
+        <v>320000</v>
       </c>
       <c r="H31" s="1">
-        <v>200</v>
-      </c>
-      <c r="I31" s="1">
-        <v>200</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+        <v>320000</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>107</v>
+        <v>3200</v>
+      </c>
+      <c r="G32" s="1">
+        <v>160000</v>
       </c>
       <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="1">
-        <v>200</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+        <v>160000</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>108</v>
+      <c r="E33" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>48</v>
+        <v>6400</v>
+      </c>
+      <c r="G33" s="1">
+        <v>320000</v>
       </c>
       <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="1">
-        <v>200</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+        <v>320000</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7">
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>109</v>
+      <c r="E34" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>48</v>
+        <v>12800</v>
+      </c>
+      <c r="G34" s="1">
+        <v>640000</v>
       </c>
       <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="1">
-        <v>200</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+        <v>640000</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>107</v>
+        <v>700</v>
+      </c>
+      <c r="G35" s="1">
+        <v>35000</v>
       </c>
       <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="1">
-        <v>200</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+        <v>35000</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1">
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>45</v>
+      <c r="E36" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>48</v>
+        <v>1400</v>
+      </c>
+      <c r="G36" s="1">
+        <v>70000</v>
       </c>
       <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="1">
-        <v>200</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+        <v>70000</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>45</v>
+      <c r="E37" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F37" s="1">
-        <v>10</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>48</v>
+        <v>2800</v>
+      </c>
+      <c r="G37" s="1">
+        <v>140000</v>
       </c>
       <c r="H37" s="1">
-        <v>200</v>
-      </c>
-      <c r="I37" s="1">
-        <v>200</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+        <v>140000</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1">
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>107</v>
+        <v>600</v>
+      </c>
+      <c r="G38" s="1">
+        <v>30000</v>
       </c>
       <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="1">
-        <v>200</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1">
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>45</v>
+      <c r="E39" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G39" s="1">
+        <v>60000</v>
       </c>
       <c r="H39" s="1">
-        <v>200</v>
-      </c>
-      <c r="I39" s="1">
-        <v>200</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B40" s="7">
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>45</v>
+      <c r="E40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="1">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G40" s="1">
+        <v>120000</v>
       </c>
       <c r="H40" s="1">
-        <v>200</v>
-      </c>
-      <c r="I40" s="1">
-        <v>200</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>107</v>
+        <v>800</v>
+      </c>
+      <c r="G41" s="1">
+        <v>40000</v>
       </c>
       <c r="H41" s="1">
-        <v>200</v>
-      </c>
-      <c r="I41" s="1">
-        <v>200</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20" customHeight="1">
+        <v>40000</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1">
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>45</v>
+      <c r="E42" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F42" s="1">
-        <v>10</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>48</v>
+        <v>1600</v>
+      </c>
+      <c r="G42" s="1">
+        <v>80000</v>
       </c>
       <c r="H42" s="1">
-        <v>200</v>
-      </c>
-      <c r="I42" s="1">
-        <v>200</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20" customHeight="1">
+        <v>80000</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B43" s="7">
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>45</v>
+      <c r="E43" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>48</v>
+        <v>3200</v>
+      </c>
+      <c r="G43" s="1">
+        <v>160000</v>
       </c>
       <c r="H43" s="1">
-        <v>200</v>
-      </c>
-      <c r="I43" s="1">
-        <v>200</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20" customHeight="1">
+        <v>160000</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>25000</v>
       </c>
       <c r="H44" s="1">
-        <v>200</v>
-      </c>
-      <c r="I44" s="1">
-        <v>200</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1">
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>45</v>
+      <c r="E45" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F45" s="1">
-        <v>10</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>50000</v>
       </c>
       <c r="H45" s="1">
-        <v>200</v>
-      </c>
-      <c r="I45" s="1">
-        <v>200</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B46" s="7">
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>45</v>
+      <c r="E46" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F46" s="1">
-        <v>10</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100000</v>
       </c>
       <c r="H46" s="1">
-        <v>200</v>
-      </c>
-      <c r="I46" s="1">
-        <v>200</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>25000</v>
       </c>
       <c r="H47" s="1">
-        <v>200</v>
-      </c>
-      <c r="I47" s="1">
-        <v>200</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>45</v>
+      <c r="E48" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="1">
-        <v>10</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>50000</v>
       </c>
       <c r="H48" s="1">
-        <v>200</v>
-      </c>
-      <c r="I48" s="1">
-        <v>200</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B49" s="7">
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>45</v>
+      <c r="E49" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>100000</v>
       </c>
       <c r="H49" s="1">
-        <v>200</v>
-      </c>
-      <c r="I49" s="1">
-        <v>200</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>107</v>
+        <v>550</v>
+      </c>
+      <c r="G50" s="1">
+        <v>27500</v>
       </c>
       <c r="H50" s="1">
-        <v>200</v>
-      </c>
-      <c r="I50" s="1">
-        <v>200</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="20" customHeight="1">
+        <v>27500</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1">
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>45</v>
+      <c r="E51" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F51" s="1">
-        <v>10</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>48</v>
+        <v>1100</v>
+      </c>
+      <c r="G51" s="1">
+        <v>55000</v>
       </c>
       <c r="H51" s="1">
-        <v>200</v>
-      </c>
-      <c r="I51" s="1">
-        <v>200</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20" customHeight="1">
+        <v>55000</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B52" s="7">
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>45</v>
+      <c r="E52" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>48</v>
+        <v>2200</v>
+      </c>
+      <c r="G52" s="1">
+        <v>110000</v>
       </c>
       <c r="H52" s="1">
-        <v>200</v>
-      </c>
-      <c r="I52" s="1">
-        <v>200</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="20" customHeight="1">
+        <v>110000</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" s="1">
-        <v>10</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>107</v>
+        <v>600</v>
+      </c>
+      <c r="G53" s="1">
+        <v>30000</v>
       </c>
       <c r="H53" s="1">
-        <v>200</v>
-      </c>
-      <c r="I53" s="1">
-        <v>200</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1">
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>45</v>
+      <c r="E54" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F54" s="1">
-        <v>10</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G54" s="1">
+        <v>60000</v>
       </c>
       <c r="H54" s="1">
-        <v>200</v>
-      </c>
-      <c r="I54" s="1">
-        <v>200</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B55" s="7">
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>45</v>
+      <c r="E55" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G55" s="1">
+        <v>120000</v>
       </c>
       <c r="H55" s="1">
-        <v>200</v>
-      </c>
-      <c r="I55" s="1">
-        <v>200</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>192</v>
+        <v>120000</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5387,29 +5245,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="8" width="20.6640625" style="1"/>
-    <col min="9" max="9" width="20.6640625" style="5"/>
-    <col min="10" max="16384" width="20.6640625" style="1"/>
+    <col min="5" max="7" width="20.6640625" style="1"/>
+    <col min="8" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5418,24 +5274,21 @@
         <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -5444,27 +5297,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5473,27 +5323,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>106</v>
+      <c r="F3" s="1">
+        <v>500</v>
       </c>
       <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -5502,27 +5349,24 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2000</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -5531,27 +5375,24 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8000</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -5560,27 +5401,24 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>400</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -5589,27 +5427,24 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60000</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
@@ -5618,27 +5453,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>165000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>165000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -5647,27 +5479,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
       </c>
       <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -5676,27 +5505,24 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
+      <c r="F10" s="1">
+        <v>500</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -5705,27 +5531,24 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2000</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -5734,27 +5557,24 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8000</v>
       </c>
       <c r="G12" s="1">
-        <v>200</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1">
         <v>150</v>
@@ -5763,27 +5583,24 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>400</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20000</v>
       </c>
       <c r="G13" s="1">
-        <v>200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
@@ -5792,27 +5609,24 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>60000</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B15" s="7">
         <v>1500</v>
@@ -5821,27 +5635,24 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>3300</v>
+      </c>
+      <c r="F15" s="1">
+        <v>165000</v>
       </c>
       <c r="G15" s="1">
-        <v>200</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>165000</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -5850,27 +5661,24 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
       </c>
       <c r="G16" s="1">
-        <v>200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -5879,27 +5687,24 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
+      <c r="F17" s="1">
+        <v>500</v>
       </c>
       <c r="G17" s="1">
-        <v>200</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -5908,27 +5713,24 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2000</v>
       </c>
       <c r="G18" s="1">
-        <v>200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>200</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -5937,27 +5739,24 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8000</v>
       </c>
       <c r="G19" s="1">
-        <v>200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1">
         <v>150</v>
@@ -5966,27 +5765,24 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>106</v>
+        <v>400</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20000</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
-      </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1">
         <v>500</v>
@@ -5995,27 +5791,24 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>60000</v>
       </c>
       <c r="G21" s="1">
-        <v>200</v>
-      </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B22" s="7">
         <v>1500</v>
@@ -6024,27 +5817,24 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>49</v>
+        <v>3300</v>
+      </c>
+      <c r="F22" s="1">
+        <v>165000</v>
       </c>
       <c r="G22" s="1">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1">
+        <v>165000</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
@@ -6053,27 +5843,24 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>200</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -6082,27 +5869,24 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>106</v>
+      <c r="F24" s="1">
+        <v>500</v>
       </c>
       <c r="G24" s="1">
-        <v>200</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
@@ -6111,27 +5895,24 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2000</v>
       </c>
       <c r="G25" s="1">
-        <v>200</v>
-      </c>
-      <c r="H25" s="1">
-        <v>200</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1">
         <v>150</v>
@@ -6140,27 +5921,24 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8000</v>
       </c>
       <c r="G26" s="1">
-        <v>200</v>
-      </c>
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
@@ -6169,389 +5947,444 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>106</v>
+        <v>400</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20000</v>
       </c>
       <c r="G27" s="1">
-        <v>200</v>
-      </c>
-      <c r="H27" s="1">
-        <v>200</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="1">
+        <v>125</v>
+      </c>
+      <c r="B28" s="7">
         <v>1500</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>108</v>
+      <c r="D28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>60000</v>
       </c>
       <c r="G28" s="1">
-        <v>200</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>60000</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B29" s="7">
         <v>4500</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>28</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3300</v>
+      </c>
+      <c r="F29" s="1">
+        <v>165000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>165000</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="7">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="7">
         <v>10</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="C32" s="7">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="7">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="7">
+        <v>50</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="7">
+        <v>320</v>
+      </c>
+      <c r="F33" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>16000</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="7">
+        <v>150</v>
+      </c>
+      <c r="C34" s="7">
+        <v>33</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="7">
+        <v>800</v>
+      </c>
+      <c r="F34" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40000</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="7">
+        <v>500</v>
+      </c>
+      <c r="C35" s="7">
+        <v>34</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C36" s="7">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6600</v>
+      </c>
+      <c r="F36" s="1">
+        <v>330000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>330000</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="7">
+        <v>155</v>
+      </c>
+      <c r="F37" s="7">
+        <v>7750</v>
+      </c>
+      <c r="G37" s="7">
+        <v>7750</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="7">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="7">
+        <v>300</v>
+      </c>
+      <c r="F38" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G38" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="7">
+        <v>600</v>
+      </c>
+      <c r="F39" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G39" s="7">
+        <v>30000</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7">
+        <v>39</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="7">
         <v>200</v>
       </c>
-      <c r="H29" s="1">
-        <v>200</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="1">
-        <v>200</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="F40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="7">
         <v>30</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1">
-        <v>200</v>
-      </c>
-      <c r="H31" s="1">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="1">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="1">
-        <v>200</v>
-      </c>
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="1">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="1">
-        <v>200</v>
-      </c>
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="1">
-        <v>200</v>
-      </c>
-      <c r="C34" s="1">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="1">
-        <v>200</v>
-      </c>
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="1">
-        <v>600</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="1">
-        <v>200</v>
-      </c>
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="1">
-        <v>200</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="1">
-        <v>200</v>
-      </c>
-      <c r="H37" s="1">
-        <v>200</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="C41" s="7">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="7">
+        <v>750</v>
+      </c>
+      <c r="F41" s="1">
+        <v>37500</v>
+      </c>
+      <c r="G41" s="1">
+        <v>37500</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="7">
         <v>90</v>
       </c>
-      <c r="C38" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="1">
-        <v>200</v>
-      </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="C42" s="7">
+        <v>41</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F42" s="1">
+        <v>90000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>90000</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="7">
         <v>250</v>
       </c>
-      <c r="C39" s="1">
-        <v>38</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="1">
-        <v>200</v>
-      </c>
-      <c r="H39" s="1">
-        <v>200</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="20" customHeight="1">
+      <c r="C43" s="7">
+        <v>42</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="C44" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="20" customHeight="1">
+    <row r="46" spans="1:8" ht="20" customHeight="1">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="20" customHeight="1">
+    <row r="47" spans="1:8" ht="20" customHeight="1">
       <c r="C47" s="2"/>
     </row>
     <row r="49" spans="2:3" ht="20" customHeight="1">
@@ -6583,29 +6416,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="8" width="20.6640625" style="1"/>
-    <col min="9" max="9" width="20.6640625" style="5"/>
-    <col min="10" max="16384" width="20.6640625" style="1"/>
+    <col min="5" max="7" width="20.6640625" style="1"/>
+    <col min="8" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -6614,24 +6445,21 @@
         <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6640,27 +6468,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>250</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>250</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6669,27 +6494,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6698,27 +6520,24 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>108</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2500</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2500</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -6727,27 +6546,24 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6500</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>6500</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -6756,27 +6572,24 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15000</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -6785,27 +6598,24 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>156</v>
+        <v>650</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32500</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32500</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -6814,27 +6624,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50000</v>
       </c>
       <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -6843,27 +6650,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>1500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>75000</v>
       </c>
       <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>75000</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -6872,27 +6676,24 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25000</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -6901,36 +6702,33 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>108</v>
+        <v>900</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45000</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>45000</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="7"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -7039,7 +6837,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7049,15 +6847,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
@@ -7065,7 +6863,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>0.25</v>
@@ -7073,7 +6871,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -7081,7 +6879,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -7089,7 +6887,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -7097,7 +6895,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B7" s="7">
         <v>0.5</v>
@@ -7105,7 +6903,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B8" s="7">
         <v>0.5</v>
@@ -7113,7 +6911,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -7121,7 +6919,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B10" s="7">
         <v>0.5</v>
@@ -7129,7 +6927,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
@@ -7137,7 +6935,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
@@ -7145,7 +6943,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
@@ -7153,7 +6951,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1">
         <v>0.3</v>
@@ -7161,7 +6959,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
@@ -7169,7 +6967,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1">
         <v>0.3</v>
@@ -7177,7 +6975,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -7185,7 +6983,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1">
         <v>0.3</v>
@@ -7193,7 +6991,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1">
         <v>0.3</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="209">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -524,6 +524,126 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isAdvancedItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buyPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6:9,dragonMaterials:redCrystal_1:6:9,dragonMaterials:blueCrystal_1:6:9,dragonMaterials:greenCrystal_1:6:9,dragonMaterials:runes_1:6:8,dragonMaterials:ingo_2:2:7,dragonMaterials:redSoul_2:2:7,dragonMaterials:blueSoul_2:2:7,dragonMaterials:greenSoul_2:2:7,dragonMaterials:redCrystal_2:2:7,dragonMaterials:blueCrystal_2:2:7,dragonMaterials:greenCrystal_2:2:7,dragonMaterials:runes_2:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isSell</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_price</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:20:20,resource:stoneClass_2:20:20,resource:ironClass_2:20:20,resource:foodClass_2:20:20,resource:coinClass_2:15:10,speedup:speedup_1:30:5,speedup:speedup_2:20:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:15:14,resource:stoneClass_3:15:14,resource:ironClass_3:15:14,resource:foodClass_3:15:14,resource:coinClass_3:5:10,resource:casinoTokenClass_1:2:16,speedup:speedup_3:8:16,speedup:speedup_4:5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:5:16,resource:stoneClass_4:5:16,resource:ironClass_4:5:16,resource:foodClass_4:5:16,resource:coinClass_4:5:10,resource:casinoTokenClass_1:2:10,speedup:speedup_4:8:10,speedup:speedup_5:5:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_6:5:14,resource:stoneClass_6:5:14,resource:ironClass_6:5:14,resource:foodClass_6:5:14,resource:coinClass_6:5:18,resource:casinoTokenClass_1:5:10,speedup:speedup_5:5:10,speedup:speedup_6:5:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>troopSizeBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -532,6 +652,78 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>marchSpeedBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -553,286 +745,6 @@
   </si>
   <si>
     <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isAdvancedItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_sellPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_buyPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:6:9,dragonMaterials:redCrystal_1:6:9,dragonMaterials:blueCrystal_1:6:9,dragonMaterials:greenCrystal_1:6:9,dragonMaterials:runes_1:6:8,dragonMaterials:ingo_2:2:7,dragonMaterials:redSoul_2:2:7,dragonMaterials:blueSoul_2:2:7,dragonMaterials:greenSoul_2:2:7,dragonMaterials:redCrystal_2:2:7,dragonMaterials:blueCrystal_2:2:7,dragonMaterials:greenCrystal_2:2:7,dragonMaterials:runes_2:2:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_2:20:20,resource:stoneClass_2:20:20,resource:ironClass_2:20:20,resource:foodClass_2:20:20,resource:coinClass_2:15:10,speedup:speedup_1:30:5,speedup:speedup_2:20:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:15:14,resource:stoneClass_3:15:14,resource:ironClass_3:15:14,resource:foodClass_3:15:14,resource:coinClass_3:5:10,resource:casinoTokenClass_1:2:16,speedup:speedup_3:8:16,speedup:speedup_4:5:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:5:16,resource:stoneClass_4:5:16,resource:ironClass_4:5:16,resource:foodClass_4:5:16,resource:coinClass_4:5:10,resource:casinoTokenClass_1:2:10,speedup:speedup_4:8:10,speedup:speedup_5:5:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_6:5:14,resource:stoneClass_6:5:14,resource:ironClass_6:5:14,resource:foodClass_6:5:14,resource:coinClass_6:5:18,resource:casinoTokenClass_1:5:10,speedup:speedup_5:5:10,speedup:speedup_6:5:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fogOfTrick</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2526,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2552,19 +2464,19 @@
         <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
@@ -2572,25 +2484,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>400</v>
       </c>
       <c r="F2" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G2" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2598,25 +2510,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="F3" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G3" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2624,25 +2536,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1">
         <v>5000</v>
       </c>
       <c r="F4" s="1">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="G4" s="1">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2650,25 +2562,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>200</v>
       </c>
       <c r="F5" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G5" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2676,25 +2588,25 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1">
         <v>500</v>
       </c>
       <c r="F6" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G6" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2702,7 +2614,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2714,10 +2626,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G7" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>45</v>
@@ -2728,7 +2640,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -2740,10 +2652,10 @@
         <v>2000</v>
       </c>
       <c r="F8" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G8" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>45</v>
@@ -2766,10 +2678,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>45</v>
@@ -2780,25 +2692,25 @@
         <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
       </c>
       <c r="F10" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G10" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2818,10 +2730,10 @@
         <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>45</v>
@@ -2844,10 +2756,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G12" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>45</v>
@@ -2870,10 +2782,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>45</v>
@@ -2896,10 +2808,10 @@
         <v>250</v>
       </c>
       <c r="F14" s="1">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="G14" s="1">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>45</v>
@@ -2922,10 +2834,10 @@
         <v>1500</v>
       </c>
       <c r="F15" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G15" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>45</v>
@@ -2948,10 +2860,10 @@
         <v>4000</v>
       </c>
       <c r="F16" s="1">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="G16" s="1">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>45</v>
@@ -2974,10 +2886,10 @@
         <v>150</v>
       </c>
       <c r="F17" s="1">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="G17" s="1">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>47</v>
@@ -3000,10 +2912,10 @@
         <v>400</v>
       </c>
       <c r="F18" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>47</v>
@@ -3026,10 +2938,10 @@
         <v>1000</v>
       </c>
       <c r="F19" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G19" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>45</v>
@@ -3052,10 +2964,10 @@
         <v>5000</v>
       </c>
       <c r="F20" s="1">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="G20" s="1">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>45</v>
@@ -3063,7 +2975,7 @@
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>43</v>
@@ -3072,19 +2984,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
       </c>
       <c r="F21" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G21" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -3092,25 +3004,25 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3118,25 +3030,25 @@
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3144,25 +3056,25 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3170,25 +3082,25 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1">
         <v>20</v>
       </c>
       <c r="F25" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G25" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3196,25 +3108,25 @@
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
       </c>
       <c r="F26" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G26" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3228,19 +3140,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1">
         <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3254,19 +3166,19 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E28" s="1">
         <v>950</v>
       </c>
       <c r="F28" s="1">
-        <v>47500</v>
+        <v>95000</v>
       </c>
       <c r="G28" s="1">
-        <v>47500</v>
+        <v>95000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3280,19 +3192,19 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E29" s="1">
         <v>4500</v>
       </c>
       <c r="F29" s="1">
-        <v>225000</v>
+        <v>450000</v>
       </c>
       <c r="G29" s="1">
-        <v>225000</v>
+        <v>450000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3306,19 +3218,19 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E30" s="1">
         <v>150</v>
       </c>
       <c r="F30" s="1">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="G30" s="1">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3332,19 +3244,19 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E31" s="1">
         <v>440</v>
       </c>
       <c r="F31" s="1">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="G31" s="1">
-        <v>22000</v>
+        <v>44000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3358,19 +3270,19 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E32" s="1">
         <v>1400</v>
       </c>
       <c r="F32" s="1">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="G32" s="1">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3384,19 +3296,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E33" s="1">
         <v>400</v>
       </c>
       <c r="F33" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3410,19 +3322,19 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E34" s="1">
         <v>1900</v>
       </c>
       <c r="F34" s="1">
-        <v>95000</v>
+        <v>190000</v>
       </c>
       <c r="G34" s="1">
-        <v>95000</v>
+        <v>190000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -3436,24 +3348,24 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1">
         <v>9000</v>
       </c>
       <c r="F35" s="1">
-        <v>450000</v>
+        <v>900000</v>
       </c>
       <c r="G35" s="1">
-        <v>450000</v>
+        <v>900000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B36" s="7">
         <v>20</v>
@@ -3462,19 +3374,19 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E36" s="1">
         <v>450</v>
       </c>
       <c r="F36" s="1">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="G36" s="1">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -3488,19 +3400,19 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E37" s="1">
         <v>900</v>
       </c>
       <c r="F37" s="1">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="G37" s="1">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -3514,19 +3426,19 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E38" s="1">
         <v>1500</v>
       </c>
       <c r="F38" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G38" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -3540,19 +3452,19 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E39" s="1">
         <v>150</v>
       </c>
       <c r="F39" s="1">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="G39" s="1">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -3566,19 +3478,19 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E40" s="1">
         <v>700</v>
       </c>
       <c r="F40" s="1">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="G40" s="1">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -3592,19 +3504,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E41" s="1">
         <v>3500</v>
       </c>
       <c r="F41" s="1">
-        <v>175000</v>
+        <v>350000</v>
       </c>
       <c r="G41" s="1">
-        <v>175000</v>
+        <v>350000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3623,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3641,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>40</v>
@@ -3656,13 +3568,13 @@
         <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
@@ -3673,25 +3585,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1">
         <v>900</v>
       </c>
       <c r="G2" s="1">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="H2" s="1">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3702,25 +3614,25 @@
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>1800</v>
       </c>
       <c r="G3" s="1">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="H3" s="1">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3731,25 +3643,25 @@
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>3600</v>
       </c>
       <c r="G4" s="1">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="H4" s="1">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3760,7 +3672,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3772,13 +3684,13 @@
         <v>500</v>
       </c>
       <c r="G5" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H5" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3789,7 +3701,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3801,13 +3713,13 @@
         <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3818,7 +3730,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3830,13 +3742,13 @@
         <v>2000</v>
       </c>
       <c r="G7" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H7" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3847,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3859,13 +3771,13 @@
         <v>600</v>
       </c>
       <c r="G8" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H8" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3876,7 +3788,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -3888,13 +3800,13 @@
         <v>1200</v>
       </c>
       <c r="G9" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H9" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3905,7 +3817,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -3917,13 +3829,13 @@
         <v>2400</v>
       </c>
       <c r="G10" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="H10" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3934,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -3946,13 +3858,13 @@
         <v>500</v>
       </c>
       <c r="G11" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3963,25 +3875,25 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>1000</v>
       </c>
       <c r="G12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3992,7 +3904,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -4004,13 +3916,13 @@
         <v>2000</v>
       </c>
       <c r="G13" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H13" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4021,25 +3933,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1">
         <v>500</v>
       </c>
       <c r="G14" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4050,25 +3962,25 @@
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4079,25 +3991,25 @@
         <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>2000</v>
       </c>
       <c r="G16" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H16" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -4108,7 +4020,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -4120,13 +4032,13 @@
         <v>500</v>
       </c>
       <c r="G17" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H17" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -4137,7 +4049,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -4149,13 +4061,13 @@
         <v>1000</v>
       </c>
       <c r="G18" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -4166,7 +4078,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
@@ -4178,13 +4090,13 @@
         <v>2000</v>
       </c>
       <c r="G19" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H19" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -4195,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -4207,13 +4119,13 @@
         <v>500</v>
       </c>
       <c r="G20" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H20" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -4224,7 +4136,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -4236,13 +4148,13 @@
         <v>1000</v>
       </c>
       <c r="G21" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H21" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -4253,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
@@ -4265,24 +4177,24 @@
         <v>2000</v>
       </c>
       <c r="G22" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H22" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -4294,24 +4206,24 @@
         <v>600</v>
       </c>
       <c r="G23" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H23" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -4323,24 +4235,24 @@
         <v>1200</v>
       </c>
       <c r="G24" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H24" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -4352,13 +4264,13 @@
         <v>2400</v>
       </c>
       <c r="G25" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="H25" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -4369,7 +4281,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
@@ -4381,13 +4293,13 @@
         <v>400</v>
       </c>
       <c r="G26" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H26" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -4398,7 +4310,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
@@ -4410,13 +4322,13 @@
         <v>800</v>
       </c>
       <c r="G27" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H27" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -4427,7 +4339,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
@@ -4439,13 +4351,13 @@
         <v>1600</v>
       </c>
       <c r="G28" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="H28" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -4456,7 +4368,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
@@ -4468,13 +4380,13 @@
         <v>1600</v>
       </c>
       <c r="G29" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="H29" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -4485,7 +4397,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
@@ -4497,13 +4409,13 @@
         <v>3200</v>
       </c>
       <c r="G30" s="1">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="H30" s="1">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -4514,7 +4426,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
@@ -4526,13 +4438,13 @@
         <v>6400</v>
       </c>
       <c r="G31" s="1">
-        <v>320000</v>
+        <v>640000</v>
       </c>
       <c r="H31" s="1">
-        <v>320000</v>
+        <v>640000</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -4543,7 +4455,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -4555,13 +4467,13 @@
         <v>3200</v>
       </c>
       <c r="G32" s="1">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="H32" s="1">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -4572,7 +4484,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -4584,13 +4496,13 @@
         <v>6400</v>
       </c>
       <c r="G33" s="1">
-        <v>320000</v>
+        <v>640000</v>
       </c>
       <c r="H33" s="1">
-        <v>320000</v>
+        <v>640000</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -4601,7 +4513,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -4613,13 +4525,13 @@
         <v>12800</v>
       </c>
       <c r="G34" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="H34" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -4630,7 +4542,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -4642,13 +4554,13 @@
         <v>700</v>
       </c>
       <c r="G35" s="1">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="H35" s="1">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -4659,7 +4571,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -4671,13 +4583,13 @@
         <v>1400</v>
       </c>
       <c r="G36" s="1">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="H36" s="1">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -4688,7 +4600,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
@@ -4700,13 +4612,13 @@
         <v>2800</v>
       </c>
       <c r="G37" s="1">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="H37" s="1">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -4717,7 +4629,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
@@ -4729,13 +4641,13 @@
         <v>600</v>
       </c>
       <c r="G38" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H38" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -4746,7 +4658,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
@@ -4758,13 +4670,13 @@
         <v>1200</v>
       </c>
       <c r="G39" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H39" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -4775,7 +4687,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -4787,13 +4699,13 @@
         <v>2400</v>
       </c>
       <c r="G40" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="H40" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -4804,7 +4716,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -4816,13 +4728,13 @@
         <v>800</v>
       </c>
       <c r="G41" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H41" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -4833,7 +4745,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
@@ -4845,13 +4757,13 @@
         <v>1600</v>
       </c>
       <c r="G42" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="H42" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
@@ -4862,7 +4774,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
@@ -4874,13 +4786,13 @@
         <v>3200</v>
       </c>
       <c r="G43" s="1">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="H43" s="1">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1">
@@ -4891,7 +4803,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
@@ -4903,13 +4815,13 @@
         <v>500</v>
       </c>
       <c r="G44" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H44" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1">
@@ -4920,7 +4832,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
@@ -4932,13 +4844,13 @@
         <v>1000</v>
       </c>
       <c r="G45" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H45" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1">
@@ -4949,7 +4861,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
@@ -4961,13 +4873,13 @@
         <v>2000</v>
       </c>
       <c r="G46" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H46" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="20" customHeight="1">
@@ -4978,7 +4890,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -4990,13 +4902,13 @@
         <v>500</v>
       </c>
       <c r="G47" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H47" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1">
@@ -5007,7 +4919,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
@@ -5019,13 +4931,13 @@
         <v>1000</v>
       </c>
       <c r="G48" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="20" customHeight="1">
@@ -5036,7 +4948,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
@@ -5048,13 +4960,13 @@
         <v>2000</v>
       </c>
       <c r="G49" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H49" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1">
@@ -5065,7 +4977,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -5077,13 +4989,13 @@
         <v>550</v>
       </c>
       <c r="G50" s="1">
-        <v>27500</v>
+        <v>55000</v>
       </c>
       <c r="H50" s="1">
-        <v>27500</v>
+        <v>55000</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1">
@@ -5094,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -5106,13 +5018,13 @@
         <v>1100</v>
       </c>
       <c r="G51" s="1">
-        <v>55000</v>
+        <v>110000</v>
       </c>
       <c r="H51" s="1">
-        <v>55000</v>
+        <v>110000</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="20" customHeight="1">
@@ -5123,7 +5035,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
@@ -5135,13 +5047,13 @@
         <v>2200</v>
       </c>
       <c r="G52" s="1">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="H52" s="1">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1">
@@ -5152,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
@@ -5164,13 +5076,13 @@
         <v>600</v>
       </c>
       <c r="G53" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H53" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1">
@@ -5181,7 +5093,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
@@ -5193,13 +5105,13 @@
         <v>1200</v>
       </c>
       <c r="G54" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H54" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1">
@@ -5210,7 +5122,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
@@ -5222,13 +5134,13 @@
         <v>2400</v>
       </c>
       <c r="G55" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="H55" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5160,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C37" sqref="A1:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5265,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5277,13 +5189,13 @@
         <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
@@ -5297,19 +5209,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -5323,19 +5235,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -5349,19 +5261,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G4" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -5375,19 +5287,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>160</v>
       </c>
       <c r="F5" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G5" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -5401,19 +5313,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>400</v>
       </c>
       <c r="F6" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G6" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -5427,19 +5339,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>1200</v>
       </c>
       <c r="F7" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G7" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -5453,19 +5365,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>3300</v>
       </c>
       <c r="F8" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="G8" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -5479,19 +5391,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -5505,19 +5417,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -5531,19 +5443,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -5557,19 +5469,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>160</v>
       </c>
       <c r="F12" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G12" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -5583,19 +5495,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>400</v>
       </c>
       <c r="F13" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G13" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -5609,19 +5521,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G14" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -5635,19 +5547,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>3300</v>
       </c>
       <c r="F15" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="G15" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -5661,19 +5573,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -5687,19 +5599,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -5713,19 +5625,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -5739,19 +5651,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E19" s="1">
         <v>160</v>
       </c>
       <c r="F19" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G19" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -5765,19 +5677,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1">
         <v>400</v>
       </c>
       <c r="F20" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -5791,19 +5703,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E21" s="1">
         <v>1200</v>
       </c>
       <c r="F21" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G21" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -5817,19 +5729,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E22" s="1">
         <v>3300</v>
       </c>
       <c r="F22" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="G22" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -5837,25 +5749,25 @@
         <v>120</v>
       </c>
       <c r="B23" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -5863,25 +5775,25 @@
         <v>121</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -5889,25 +5801,25 @@
         <v>122</v>
       </c>
       <c r="B25" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1">
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G25" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -5915,25 +5827,25 @@
         <v>123</v>
       </c>
       <c r="B26" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1">
         <v>160</v>
       </c>
       <c r="F26" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G26" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -5941,51 +5853,51 @@
         <v>124</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1">
         <v>400</v>
       </c>
       <c r="F27" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="7">
-        <v>1500</v>
+      <c r="B28" s="1">
+        <v>500</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E28" s="7">
         <v>1200</v>
       </c>
       <c r="F28" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G28" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -5993,25 +5905,25 @@
         <v>126</v>
       </c>
       <c r="B29" s="7">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E29" s="7">
         <v>3300</v>
       </c>
       <c r="F29" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="G29" s="1">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -6025,19 +5937,19 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G30" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -6051,19 +5963,19 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="E31" s="7">
         <v>20</v>
       </c>
       <c r="F31" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G31" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -6077,19 +5989,19 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="E32" s="7">
         <v>80</v>
       </c>
       <c r="F32" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G32" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -6103,19 +6015,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E33" s="7">
         <v>320</v>
       </c>
       <c r="F33" s="1">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="1">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -6129,19 +6041,19 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E34" s="7">
         <v>800</v>
       </c>
       <c r="F34" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G34" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -6155,24 +6067,24 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E35" s="7">
         <v>2400</v>
       </c>
       <c r="F35" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="G35" s="1">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B36" s="7">
         <v>1500</v>
@@ -6181,24 +6093,24 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E36" s="7">
         <v>6600</v>
       </c>
       <c r="F36" s="1">
-        <v>330000</v>
+        <v>660000</v>
       </c>
       <c r="G36" s="1">
-        <v>330000</v>
+        <v>660000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B37" s="7">
         <v>0.2</v>
@@ -6207,24 +6119,24 @@
         <v>36</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E37" s="7">
         <v>155</v>
       </c>
-      <c r="F37" s="7">
-        <v>7750</v>
-      </c>
-      <c r="G37" s="7">
-        <v>7750</v>
+      <c r="F37" s="1">
+        <v>15500</v>
+      </c>
+      <c r="G37" s="1">
+        <v>15500</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B38" s="7">
         <v>0.5</v>
@@ -6233,24 +6145,24 @@
         <v>37</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E38" s="7">
         <v>300</v>
       </c>
-      <c r="F38" s="7">
-        <v>15000</v>
-      </c>
-      <c r="G38" s="7">
-        <v>15000</v>
+      <c r="F38" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>30000</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -6259,24 +6171,24 @@
         <v>38</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E39" s="7">
         <v>600</v>
       </c>
-      <c r="F39" s="7">
-        <v>30000</v>
-      </c>
-      <c r="G39" s="7">
-        <v>30000</v>
+      <c r="F39" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>60000</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B40" s="7">
         <v>7</v>
@@ -6291,13 +6203,13 @@
         <v>200</v>
       </c>
       <c r="F40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -6317,13 +6229,13 @@
         <v>750</v>
       </c>
       <c r="F41" s="1">
-        <v>37500</v>
+        <v>75000</v>
       </c>
       <c r="G41" s="1">
-        <v>37500</v>
+        <v>75000</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -6343,13 +6255,13 @@
         <v>1800</v>
       </c>
       <c r="F42" s="1">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="G42" s="1">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -6369,13 +6281,13 @@
         <v>4000</v>
       </c>
       <c r="F43" s="1">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="G43" s="1">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -6419,7 +6331,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6436,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -6448,18 +6360,18 @@
         <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6468,24 +6380,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6494,24 +6406,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G3" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6520,19 +6432,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -6546,19 +6458,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
       </c>
       <c r="F5" s="1">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="G5" s="1">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -6572,19 +6484,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
       </c>
       <c r="F6" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G6" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -6598,19 +6510,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E7" s="1">
         <v>650</v>
       </c>
       <c r="F7" s="1">
-        <v>32500</v>
+        <v>65000</v>
       </c>
       <c r="G7" s="1">
-        <v>32500</v>
+        <v>65000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -6624,19 +6536,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E8" s="1">
         <v>1000</v>
       </c>
       <c r="F8" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G8" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -6656,13 +6568,13 @@
         <v>1500</v>
       </c>
       <c r="F9" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G9" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -6682,13 +6594,13 @@
         <v>500</v>
       </c>
       <c r="F10" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G10" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -6708,13 +6620,13 @@
         <v>900</v>
       </c>
       <c r="F11" s="1">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="G11" s="1">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -6836,8 +6748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6850,7 +6762,7 @@
         <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -6911,7 +6823,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -6919,7 +6831,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B10" s="7">
         <v>0.5</v>
@@ -6927,7 +6839,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
@@ -6935,7 +6847,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
@@ -6943,7 +6855,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
@@ -6951,7 +6863,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1">
         <v>0.3</v>
@@ -6959,7 +6871,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
@@ -6967,7 +6879,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1">
         <v>0.3</v>
@@ -6975,7 +6887,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -6983,7 +6895,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1">
         <v>0.3</v>
@@ -6991,7 +6903,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1">
         <v>0.3</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="1960" windowWidth="36220" windowHeight="18520" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="210">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -54,9 +54,6 @@
     <t>torch</t>
   </si>
   <si>
-    <t>changeCityName</t>
-  </si>
-  <si>
     <t>retreatTroop</t>
   </si>
   <si>
@@ -745,6 +742,14 @@
   </si>
   <si>
     <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +906,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="526">
+  <cellStyleXfs count="554">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -916,6 +921,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1463,7 +1496,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="526">
+  <cellStyles count="554">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1729,6 +1762,20 @@
     <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1987,6 +2034,20 @@
     <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2436,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2458,39 +2519,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1">
         <v>400</v>
@@ -2502,21 +2563,21 @@
         <v>40000</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
@@ -2528,21 +2589,21 @@
         <v>150000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1">
         <v>5000</v>
@@ -2554,21 +2615,21 @@
         <v>500000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1">
         <v>200</v>
@@ -2580,21 +2641,21 @@
         <v>20000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1">
         <v>500</v>
@@ -2606,21 +2667,21 @@
         <v>50000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
         <v>1000</v>
@@ -2632,47 +2693,47 @@
         <v>100000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="1">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="G8" s="1">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2684,47 +2745,47 @@
         <v>2000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2736,12 +2797,12 @@
         <v>10000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7">
         <v>30</v>
@@ -2750,7 +2811,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -2762,12 +2823,12 @@
         <v>500</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7">
         <v>60</v>
@@ -2776,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -2788,12 +2849,12 @@
         <v>1000</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7">
         <v>1440</v>
@@ -2802,7 +2863,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1">
         <v>250</v>
@@ -2814,12 +2875,12 @@
         <v>25000</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7">
         <v>10080</v>
@@ -2828,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>1500</v>
@@ -2840,12 +2901,12 @@
         <v>150000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7">
         <v>43200</v>
@@ -2854,7 +2915,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>4000</v>
@@ -2866,12 +2927,12 @@
         <v>400000</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7">
         <v>100</v>
@@ -2880,24 +2941,24 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F17" s="1">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="1">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7">
         <v>300</v>
@@ -2906,24 +2967,24 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="F18" s="1">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G18" s="1">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <v>1000</v>
@@ -2932,24 +2993,24 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F19" s="1">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="G19" s="1">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7">
         <v>5000</v>
@@ -2958,45 +3019,45 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F20" s="1">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="G20" s="1">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G21" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -3004,39 +3065,39 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
@@ -3048,73 +3109,73 @@
         <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="2">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="E25" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F25" s="1">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="G25" s="1">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C26" s="2">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
@@ -3126,397 +3187,371 @@
         <v>50000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>400000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>400000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7">
+        <v>25000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7">
+        <v>500</v>
+      </c>
+      <c r="C29" s="2">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="1">
+        <v>150</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="1">
+        <v>440</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44000</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F31" s="1">
+        <v>140000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>140000</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7">
         <v>1000</v>
       </c>
-      <c r="C27" s="1">
-        <v>26</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="1">
-        <v>200</v>
-      </c>
-      <c r="F27" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>20000</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="C32" s="1">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="1">
+        <v>500</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7">
         <v>5000</v>
       </c>
-      <c r="C28" s="2">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="1">
-        <v>950</v>
-      </c>
-      <c r="F28" s="1">
-        <v>95000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>95000</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="C33" s="2">
+        <v>33</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>400000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>400000</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="7">
         <v>25000</v>
       </c>
-      <c r="C29" s="1">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4500</v>
-      </c>
-      <c r="F29" s="1">
-        <v>450000</v>
-      </c>
-      <c r="G29" s="1">
-        <v>450000</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="C34" s="1">
+        <v>34</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="7">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="1">
+        <v>450</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="7">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="1">
+        <v>900</v>
+      </c>
+      <c r="F36" s="1">
+        <v>90000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>90000</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="7">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2">
+        <v>37</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F37" s="1">
+        <v>150000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="7">
         <v>500</v>
       </c>
-      <c r="C30" s="2">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="1">
-        <v>150</v>
-      </c>
-      <c r="F30" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>15000</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C31" s="1">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="1">
-        <v>440</v>
-      </c>
-      <c r="F31" s="1">
-        <v>44000</v>
-      </c>
-      <c r="G31" s="1">
-        <v>44000</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F32" s="1">
-        <v>140000</v>
-      </c>
-      <c r="G32" s="1">
-        <v>140000</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C33" s="1">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="1">
-        <v>400</v>
-      </c>
-      <c r="F33" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>40000</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C34" s="2">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F34" s="1">
-        <v>190000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>190000</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="7">
-        <v>25000</v>
-      </c>
-      <c r="C35" s="1">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F35" s="1">
-        <v>900000</v>
-      </c>
-      <c r="G35" s="1">
-        <v>900000</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="7">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2">
-        <v>35</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="1">
-        <v>450</v>
-      </c>
-      <c r="F36" s="1">
-        <v>45000</v>
-      </c>
-      <c r="G36" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="7">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="1">
-        <v>900</v>
-      </c>
-      <c r="F37" s="1">
-        <v>90000</v>
-      </c>
-      <c r="G37" s="1">
-        <v>90000</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="7">
+      <c r="C38" s="1">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="1">
         <v>100</v>
       </c>
-      <c r="C38" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1500</v>
-      </c>
       <c r="F38" s="1">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G38" s="1">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="7">
-        <v>500</v>
-      </c>
-      <c r="C39" s="1">
-        <v>38</v>
+        <v>2500</v>
+      </c>
+      <c r="C39" s="2">
+        <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E39" s="1">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F39" s="1">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G39" s="1">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="7">
-        <v>2500</v>
-      </c>
-      <c r="C40" s="2">
-        <v>39</v>
+        <v>12500</v>
+      </c>
+      <c r="C40" s="1">
+        <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F40" s="1">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="G40" s="1">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="7">
-        <v>12500</v>
-      </c>
-      <c r="C41" s="1">
-        <v>40</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F41" s="1">
-        <v>350000</v>
-      </c>
-      <c r="G41" s="1">
-        <v>350000</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3535,8 +3570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3553,132 +3588,132 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G2" s="1">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="H2" s="1">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="G3" s="1">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="H3" s="1">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G4" s="1">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="H4" s="1">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <v>500</v>
@@ -3690,24 +3725,24 @@
         <v>50000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>1000</v>
@@ -3719,24 +3754,24 @@
         <v>100000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1">
         <v>2000</v>
@@ -3748,111 +3783,111 @@
         <v>200000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G8" s="1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="1">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="1">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="7">
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G10" s="1">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="H10" s="1">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1">
         <v>500</v>
@@ -3864,24 +3899,24 @@
         <v>50000</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1">
         <v>1000</v>
@@ -3893,24 +3928,24 @@
         <v>100000</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7">
         <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1">
         <v>2000</v>
@@ -3922,24 +3957,24 @@
         <v>200000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
         <v>500</v>
@@ -3951,24 +3986,24 @@
         <v>50000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>1000</v>
@@ -3980,24 +4015,24 @@
         <v>100000</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="7">
         <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1">
         <v>2000</v>
@@ -4009,24 +4044,24 @@
         <v>200000</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>500</v>
@@ -4038,24 +4073,24 @@
         <v>50000</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1">
         <v>1000</v>
@@ -4067,24 +4102,24 @@
         <v>100000</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="7">
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1">
         <v>2000</v>
@@ -4096,24 +4131,24 @@
         <v>200000</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="7">
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1">
         <v>500</v>
@@ -4125,24 +4160,24 @@
         <v>50000</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1">
         <v>1000</v>
@@ -4154,24 +4189,24 @@
         <v>100000</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7">
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1">
         <v>2000</v>
@@ -4183,24 +4218,24 @@
         <v>200000</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>600</v>
@@ -4212,24 +4247,24 @@
         <v>60000</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
         <v>1200</v>
@@ -4241,24 +4276,24 @@
         <v>120000</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
         <v>2400</v>
@@ -4270,372 +4305,372 @@
         <v>240000</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G26" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H26" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="H27" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7">
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="1">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="H28" s="1">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G29" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="H29" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="G30" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="H30" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="7">
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="G31" s="1">
-        <v>640000</v>
+        <v>320000</v>
       </c>
       <c r="H31" s="1">
-        <v>640000</v>
+        <v>320000</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G32" s="1">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="H32" s="1">
-        <v>320000</v>
+        <v>80000</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1">
-        <v>6400</v>
+        <v>1600</v>
       </c>
       <c r="G33" s="1">
-        <v>640000</v>
+        <v>160000</v>
       </c>
       <c r="H33" s="1">
-        <v>640000</v>
+        <v>160000</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="7">
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
-        <v>12800</v>
+        <v>3200</v>
       </c>
       <c r="G34" s="1">
-        <v>1280000</v>
+        <v>320000</v>
       </c>
       <c r="H34" s="1">
-        <v>1280000</v>
+        <v>320000</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G35" s="1">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="H35" s="1">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1">
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="1">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="H36" s="1">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="7">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="G37" s="1">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="H37" s="1">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1">
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1">
         <v>600</v>
@@ -4647,24 +4682,24 @@
         <v>60000</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1">
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1">
         <v>1200</v>
@@ -4676,24 +4711,24 @@
         <v>120000</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="7">
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1">
         <v>2400</v>
@@ -4705,24 +4740,24 @@
         <v>240000</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>800</v>
@@ -4734,24 +4769,24 @@
         <v>80000</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1">
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" s="1">
         <v>1600</v>
@@ -4763,24 +4798,24 @@
         <v>160000</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="7">
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="1">
         <v>3200</v>
@@ -4792,24 +4827,24 @@
         <v>320000</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="1">
         <v>500</v>
@@ -4821,24 +4856,24 @@
         <v>50000</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1">
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="1">
         <v>1000</v>
@@ -4850,24 +4885,24 @@
         <v>100000</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="7">
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="1">
         <v>2000</v>
@@ -4879,24 +4914,24 @@
         <v>200000</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1">
         <v>500</v>
@@ -4908,24 +4943,24 @@
         <v>50000</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="1">
         <v>1000</v>
@@ -4937,24 +4972,24 @@
         <v>100000</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="7">
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="1">
         <v>2000</v>
@@ -4966,24 +5001,24 @@
         <v>200000</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="1">
         <v>550</v>
@@ -4995,24 +5030,24 @@
         <v>55000</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1">
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" s="1">
         <v>1100</v>
@@ -5024,24 +5059,24 @@
         <v>110000</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="7">
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" s="1">
         <v>2200</v>
@@ -5053,24 +5088,24 @@
         <v>220000</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="1">
         <v>600</v>
@@ -5082,24 +5117,24 @@
         <v>60000</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1">
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1">
         <v>1200</v>
@@ -5111,24 +5146,24 @@
         <v>120000</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="7">
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1">
         <v>2400</v>
@@ -5140,7 +5175,7 @@
         <v>240000</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5159,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C37" sqref="A1:H43"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5177,30 +5212,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -5209,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -5221,12 +5256,12 @@
         <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5235,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -5247,12 +5282,12 @@
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -5261,7 +5296,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -5273,12 +5308,12 @@
         <v>4000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -5287,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>160</v>
@@ -5299,12 +5334,12 @@
         <v>16000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -5313,7 +5348,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>400</v>
@@ -5325,12 +5360,12 @@
         <v>40000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -5339,7 +5374,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>1200</v>
@@ -5351,12 +5386,12 @@
         <v>120000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
@@ -5365,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1">
         <v>3300</v>
@@ -5377,12 +5412,12 @@
         <v>330000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -5391,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5403,12 +5438,12 @@
         <v>100</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -5417,7 +5452,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -5429,12 +5464,12 @@
         <v>1000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -5443,7 +5478,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -5455,12 +5490,12 @@
         <v>4000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -5469,7 +5504,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>160</v>
@@ -5481,12 +5516,12 @@
         <v>16000</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1">
         <v>150</v>
@@ -5495,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>400</v>
@@ -5507,12 +5542,12 @@
         <v>40000</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
@@ -5521,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -5533,12 +5568,12 @@
         <v>120000</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="7">
         <v>1500</v>
@@ -5547,7 +5582,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
         <v>3300</v>
@@ -5559,12 +5594,12 @@
         <v>330000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -5573,7 +5608,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -5585,12 +5620,12 @@
         <v>100</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -5599,7 +5634,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -5611,12 +5646,12 @@
         <v>1000</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -5625,7 +5660,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
@@ -5637,12 +5672,12 @@
         <v>4000</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -5651,7 +5686,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="1">
         <v>160</v>
@@ -5663,12 +5698,12 @@
         <v>16000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1">
         <v>150</v>
@@ -5677,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1">
         <v>400</v>
@@ -5689,12 +5724,12 @@
         <v>40000</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1">
         <v>500</v>
@@ -5703,7 +5738,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="1">
         <v>1200</v>
@@ -5715,12 +5750,12 @@
         <v>120000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="7">
         <v>1500</v>
@@ -5729,7 +5764,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="1">
         <v>3300</v>
@@ -5741,12 +5776,12 @@
         <v>330000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="1">
         <v>0.1</v>
@@ -5755,7 +5790,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5767,12 +5802,12 @@
         <v>100</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -5781,7 +5816,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -5793,12 +5828,12 @@
         <v>1000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1">
         <v>10</v>
@@ -5807,7 +5842,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="1">
         <v>40</v>
@@ -5819,12 +5854,12 @@
         <v>4000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1">
         <v>50</v>
@@ -5833,7 +5868,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="1">
         <v>160</v>
@@ -5845,12 +5880,12 @@
         <v>16000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1">
         <v>150</v>
@@ -5859,7 +5894,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1">
         <v>400</v>
@@ -5871,12 +5906,12 @@
         <v>40000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1">
         <v>500</v>
@@ -5885,7 +5920,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="7">
         <v>1200</v>
@@ -5897,12 +5932,12 @@
         <v>120000</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="7">
         <v>1500</v>
@@ -5911,7 +5946,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E29" s="7">
         <v>3300</v>
@@ -5923,12 +5958,12 @@
         <v>330000</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="7">
         <v>0.1</v>
@@ -5937,7 +5972,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -5949,12 +5984,12 @@
         <v>200</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="7">
         <v>2</v>
@@ -5963,7 +5998,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31" s="7">
         <v>20</v>
@@ -5975,12 +6010,12 @@
         <v>2000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="7">
         <v>10</v>
@@ -5989,7 +6024,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E32" s="7">
         <v>80</v>
@@ -6001,12 +6036,12 @@
         <v>8000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="7">
         <v>50</v>
@@ -6015,7 +6050,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E33" s="7">
         <v>320</v>
@@ -6027,12 +6062,12 @@
         <v>32000</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="7">
         <v>150</v>
@@ -6041,7 +6076,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="7">
         <v>800</v>
@@ -6053,12 +6088,12 @@
         <v>80000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="7">
         <v>500</v>
@@ -6067,7 +6102,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="7">
         <v>2400</v>
@@ -6079,12 +6114,12 @@
         <v>240000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="7">
         <v>1500</v>
@@ -6093,7 +6128,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="7">
         <v>6600</v>
@@ -6105,12 +6140,12 @@
         <v>660000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="7">
         <v>0.2</v>
@@ -6119,7 +6154,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="7">
         <v>155</v>
@@ -6131,12 +6166,12 @@
         <v>15500</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="7">
         <v>0.5</v>
@@ -6145,7 +6180,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="7">
         <v>300</v>
@@ -6157,12 +6192,12 @@
         <v>30000</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -6171,7 +6206,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="7">
         <v>600</v>
@@ -6183,12 +6218,12 @@
         <v>60000</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="7">
         <v>7</v>
@@ -6197,7 +6232,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="7">
         <v>200</v>
@@ -6209,12 +6244,12 @@
         <v>20000</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="7">
         <v>30</v>
@@ -6223,7 +6258,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="7">
         <v>750</v>
@@ -6235,12 +6270,12 @@
         <v>75000</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="7">
         <v>90</v>
@@ -6249,7 +6284,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="7">
         <v>1800</v>
@@ -6261,12 +6296,12 @@
         <v>180000</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="7">
         <v>250</v>
@@ -6275,7 +6310,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="7">
         <v>4000</v>
@@ -6287,7 +6322,7 @@
         <v>400000</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -6331,7 +6366,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6348,30 +6383,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6380,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -6392,12 +6427,12 @@
         <v>500</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6406,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -6418,12 +6453,12 @@
         <v>2000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6432,7 +6467,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -6444,12 +6479,12 @@
         <v>5000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -6458,7 +6493,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -6470,12 +6505,12 @@
         <v>13000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -6484,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
@@ -6496,12 +6531,12 @@
         <v>30000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -6510,7 +6545,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1">
         <v>650</v>
@@ -6522,12 +6557,12 @@
         <v>65000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -6536,7 +6571,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1">
         <v>1000</v>
@@ -6548,12 +6583,12 @@
         <v>100000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -6562,7 +6597,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>1500</v>
@@ -6574,12 +6609,12 @@
         <v>150000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -6588,24 +6623,24 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="1">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -6614,19 +6649,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F11" s="1">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G11" s="1">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -6746,10 +6781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6757,156 +6792,160 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="B16" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1960" windowWidth="36220" windowHeight="18520" tabRatio="883"/>
+    <workbookView xWindow="7320" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="381" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="220">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -705,51 +705,74 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_effect1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_effect2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+  </si>
+  <si>
+    <t>woodBonus</t>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+  </si>
+  <si>
+    <t>ironBonus</t>
+  </si>
+  <si>
+    <t>foodBonus</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+  </si>
+  <si>
+    <t>gemClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -905,8 +928,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="554">
+  <cellStyleXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1465,8 +1512,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,8 +1560,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="554">
+  <cellStyles count="572">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1776,6 +1850,15 @@
     <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2048,6 +2131,15 @@
     <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2499,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5194,8 +5286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6226,7 +6318,7 @@
         <v>194</v>
       </c>
       <c r="B40" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
@@ -6235,13 +6327,13 @@
         <v>43</v>
       </c>
       <c r="E40" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F40" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G40" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>174</v>
@@ -6252,7 +6344,7 @@
         <v>132</v>
       </c>
       <c r="B41" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
@@ -6261,13 +6353,13 @@
         <v>43</v>
       </c>
       <c r="E41" s="7">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G41" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>174</v>
@@ -6278,7 +6370,7 @@
         <v>133</v>
       </c>
       <c r="B42" s="7">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -6287,13 +6379,13 @@
         <v>43</v>
       </c>
       <c r="E42" s="7">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F42" s="1">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="G42" s="1">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>174</v>
@@ -6304,7 +6396,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
@@ -6313,23 +6405,95 @@
         <v>43</v>
       </c>
       <c r="E43" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="G43" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20" customHeight="1">
-      <c r="C44" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="20" customHeight="1">
-      <c r="B46" s="7"/>
+    <row r="44" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="7">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="7">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="7">
+        <v>100</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="7">
+        <v>100</v>
+      </c>
+      <c r="F45" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
       <c r="C47" s="2"/>
@@ -6781,10 +6945,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6797,156 +6961,166 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="12">
         <v>0.2</v>
       </c>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="381" activeTab="2"/>
+    <workbookView xWindow="1100" yWindow="380" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="221">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -541,238 +541,242 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>BOOL_isSell</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_price</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+  </si>
+  <si>
+    <t>woodBonus</t>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+  </si>
+  <si>
+    <t>ironBonus</t>
+  </si>
+  <si>
+    <t>foodBonus</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+  </si>
+  <si>
+    <t>gemClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>dragonMaterials:ingo_1:6:9,dragonMaterials:redCrystal_1:6:9,dragonMaterials:blueCrystal_1:6:9,dragonMaterials:greenCrystal_1:6:9,dragonMaterials:runes_1:6:8,dragonMaterials:ingo_2:2:7,dragonMaterials:redSoul_2:2:7,dragonMaterials:blueSoul_2:2:7,dragonMaterials:greenSoul_2:2:7,dragonMaterials:redCrystal_2:2:7,dragonMaterials:blueCrystal_2:2:7,dragonMaterials:greenCrystal_2:2:7,dragonMaterials:runes_2:2:7</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL_isSell</t>
+    <t>resource:woodClass_3:5:16,resource:stoneClass_3:5:16,resource:ironClass_3:5:16,resource:foodClass_3:5:16,resource:coinClass_3:2:10,speedup:speedup_2:10:16,speedup:speedup_3:5:5,resource:casinoTokenClass_1:1:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_price</t>
+    <t>resource:woodClass_3:15:10,resource:stoneClass_3:15:10,resource:ironClass_3:15:10,resource:foodClass_3:15:10,resource:coinClass_3:5:19,resource:casinoTokenClass_2:1:20,speedup:speedup_3:10:20,speedup:speedup_4:5:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_sellPriceInAlliance</t>
+    <t>resource:woodClass_4:5:15,resource:stoneClass_4:5:15,resource:ironClass_4:5:15,resource:foodClass_4:5:15,resource:coinClass_4:5:15,resource:casinoTokenClass_3:1:10,speedup:speedup_4:10:10,speedup:speedup_5:5:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
+    <t>resource:woodClass_5:5:15,resource:stoneClass_5:5:15,resource:ironClass_5:5:15,resource:foodClass_5:5:15,resource:coinClass_5:5:15,resource:casinoTokenClass_4:1:10,speedup:speedup_5:10:10,speedup:speedup_6:5:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_2:20:20,resource:stoneClass_2:20:20,resource:ironClass_2:20:20,resource:foodClass_2:20:20,resource:coinClass_2:15:10,speedup:speedup_1:30:5,speedup:speedup_2:20:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:15:14,resource:stoneClass_3:15:14,resource:ironClass_3:15:14,resource:foodClass_3:15:14,resource:coinClass_3:5:10,resource:casinoTokenClass_1:2:16,speedup:speedup_3:8:16,speedup:speedup_4:5:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:5:16,resource:stoneClass_4:5:16,resource:ironClass_4:5:16,resource:foodClass_4:5:16,resource:coinClass_4:5:10,resource:casinoTokenClass_1:2:10,speedup:speedup_4:8:10,speedup:speedup_5:5:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_6:5:14,resource:stoneClass_6:5:14,resource:ironClass_6:5:14,resource:foodClass_6:5:14,resource:coinClass_6:5:18,resource:casinoTokenClass_1:5:10,speedup:speedup_5:5:10,speedup:speedup_6:5:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-  </si>
-  <si>
-    <t>woodBonus</t>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-  </si>
-  <si>
-    <t>ironBonus</t>
-  </si>
-  <si>
-    <t>foodBonus</t>
-  </si>
-  <si>
-    <t>coinBonus</t>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-  </si>
-  <si>
-    <t>gemClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_3</t>
+    <t>casinoTokenClass_5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="572">
+  <cellStyleXfs count="624">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -968,6 +972,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1570,7 +1626,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="572">
+  <cellStyles count="624">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1859,6 +1915,32 @@
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2140,6 +2222,32 @@
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2591,14 +2699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="20.6640625" style="7"/>
+    <col min="2" max="2" width="64.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
     <col min="5" max="7" width="20.6640625" style="1"/>
@@ -2617,13 +2725,13 @@
         <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>156</v>
@@ -2637,7 +2745,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2663,13 +2771,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
@@ -2681,7 +2789,7 @@
         <v>150000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2689,13 +2797,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1">
         <v>5000</v>
@@ -2707,7 +2815,7 @@
         <v>500000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2715,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2741,13 +2849,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1">
         <v>500</v>
@@ -2759,7 +2867,7 @@
         <v>50000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2767,7 +2875,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2793,7 +2901,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -2802,13 +2910,13 @@
         <v>46</v>
       </c>
       <c r="E8" s="1">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F8" s="1">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="G8" s="1">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>44</v>
@@ -2828,13 +2936,13 @@
         <v>44</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>44</v>
@@ -2854,13 +2962,13 @@
         <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>44</v>
@@ -2880,13 +2988,13 @@
         <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>44</v>
@@ -3128,7 +3236,7 @@
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>42</v>
@@ -3157,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -3175,7 +3283,7 @@
         <v>5000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3183,13 +3291,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
@@ -3201,7 +3309,7 @@
         <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3209,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1">
         <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
@@ -3227,7 +3335,7 @@
         <v>2000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3235,13 +3343,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C25" s="2">
         <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E25" s="1">
         <v>500</v>
@@ -3253,7 +3361,7 @@
         <v>50000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3267,7 +3375,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
@@ -3279,7 +3387,7 @@
         <v>50000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3293,7 +3401,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1">
         <v>4000</v>
@@ -3305,7 +3413,7 @@
         <v>400000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3319,7 +3427,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E28" s="1">
         <v>12000</v>
@@ -3331,7 +3439,7 @@
         <v>1200000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3345,7 +3453,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1">
         <v>150</v>
@@ -3357,7 +3465,7 @@
         <v>15000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3371,7 +3479,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E30" s="1">
         <v>440</v>
@@ -3383,7 +3491,7 @@
         <v>44000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3397,7 +3505,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1">
         <v>1400</v>
@@ -3409,7 +3517,7 @@
         <v>140000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3423,7 +3531,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1">
         <v>500</v>
@@ -3435,7 +3543,7 @@
         <v>50000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3449,7 +3557,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E33" s="1">
         <v>4000</v>
@@ -3461,7 +3569,7 @@
         <v>400000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3475,7 +3583,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E34" s="1">
         <v>12000</v>
@@ -3487,12 +3595,12 @@
         <v>1200000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B35" s="7">
         <v>20</v>
@@ -3501,7 +3609,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1">
         <v>450</v>
@@ -3513,7 +3621,7 @@
         <v>45000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -3527,7 +3635,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E36" s="1">
         <v>900</v>
@@ -3539,7 +3647,7 @@
         <v>90000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -3553,7 +3661,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E37" s="1">
         <v>1500</v>
@@ -3565,7 +3673,7 @@
         <v>150000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -3579,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E38" s="1">
         <v>100</v>
@@ -3591,7 +3699,7 @@
         <v>10000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -3605,7 +3713,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1">
         <v>600</v>
@@ -3617,7 +3725,7 @@
         <v>60000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -3631,7 +3739,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E40" s="1">
         <v>2000</v>
@@ -3643,7 +3751,7 @@
         <v>200000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3662,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3680,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -3695,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>156</v>
@@ -4315,13 +4423,13 @@
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -4344,13 +4452,13 @@
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -4373,13 +4481,13 @@
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -4582,7 +4690,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -4611,7 +4719,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -4640,7 +4748,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -4669,7 +4777,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -4698,7 +4806,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -4727,7 +4835,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
@@ -4843,7 +4951,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -4872,7 +4980,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
@@ -4901,7 +5009,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
@@ -5017,7 +5125,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -5046,7 +5154,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
@@ -5075,7 +5183,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
@@ -5104,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -5133,7 +5241,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -5162,7 +5270,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
@@ -5191,7 +5299,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
@@ -5220,7 +5328,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
@@ -5249,7 +5357,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
@@ -5284,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5316,7 +5424,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>156</v>
@@ -5726,7 +5834,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -5738,7 +5846,7 @@
         <v>1000</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -5752,7 +5860,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
@@ -5764,7 +5872,7 @@
         <v>4000</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -5778,7 +5886,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1">
         <v>160</v>
@@ -5790,7 +5898,7 @@
         <v>16000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -5804,7 +5912,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E20" s="1">
         <v>400</v>
@@ -5816,7 +5924,7 @@
         <v>40000</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -5830,7 +5938,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E21" s="1">
         <v>1200</v>
@@ -5842,7 +5950,7 @@
         <v>120000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -5856,7 +5964,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1">
         <v>3300</v>
@@ -5868,7 +5976,7 @@
         <v>330000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -5882,7 +5990,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5894,7 +6002,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -5908,7 +6016,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -5920,7 +6028,7 @@
         <v>1000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -5934,7 +6042,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E25" s="1">
         <v>40</v>
@@ -5946,7 +6054,7 @@
         <v>4000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -5960,7 +6068,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1">
         <v>160</v>
@@ -5972,7 +6080,7 @@
         <v>16000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -5986,7 +6094,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1">
         <v>400</v>
@@ -5998,7 +6106,7 @@
         <v>40000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -6012,7 +6120,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E28" s="7">
         <v>1200</v>
@@ -6024,7 +6132,7 @@
         <v>120000</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -6038,7 +6146,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E29" s="7">
         <v>3300</v>
@@ -6050,7 +6158,7 @@
         <v>330000</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -6064,7 +6172,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -6076,7 +6184,7 @@
         <v>200</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -6090,7 +6198,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E31" s="7">
         <v>20</v>
@@ -6102,7 +6210,7 @@
         <v>2000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -6116,7 +6224,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E32" s="7">
         <v>80</v>
@@ -6128,7 +6236,7 @@
         <v>8000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -6142,7 +6250,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E33" s="7">
         <v>320</v>
@@ -6154,7 +6262,7 @@
         <v>32000</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -6168,7 +6276,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E34" s="7">
         <v>800</v>
@@ -6180,7 +6288,7 @@
         <v>80000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -6194,7 +6302,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E35" s="7">
         <v>2400</v>
@@ -6206,12 +6314,12 @@
         <v>240000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B36" s="7">
         <v>1500</v>
@@ -6220,7 +6328,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E36" s="7">
         <v>6600</v>
@@ -6232,12 +6340,12 @@
         <v>660000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B37" s="7">
         <v>0.2</v>
@@ -6263,7 +6371,7 @@
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B38" s="7">
         <v>0.5</v>
@@ -6289,7 +6397,7 @@
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -6310,33 +6418,33 @@
         <v>60000</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B40" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>43</v>
+      <c r="D40" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E40" s="7">
-        <v>500</v>
-      </c>
-      <c r="F40" s="1">
-        <v>50000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>174</v>
+        <v>250</v>
+      </c>
+      <c r="F40" s="7">
+        <v>25000</v>
+      </c>
+      <c r="G40" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -6344,7 +6452,7 @@
         <v>132</v>
       </c>
       <c r="B41" s="7">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
@@ -6353,16 +6461,16 @@
         <v>43</v>
       </c>
       <c r="E41" s="7">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F41" s="1">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="G41" s="1">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -6370,7 +6478,7 @@
         <v>133</v>
       </c>
       <c r="B42" s="7">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -6379,16 +6487,16 @@
         <v>43</v>
       </c>
       <c r="E42" s="7">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="1">
-        <v>360000</v>
+        <v>150000</v>
       </c>
       <c r="G42" s="1">
-        <v>360000</v>
+        <v>150000</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -6396,7 +6504,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="7">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
@@ -6405,113 +6513,139 @@
         <v>43</v>
       </c>
       <c r="E43" s="7">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="F43" s="1">
-        <v>800000</v>
+        <v>360000</v>
       </c>
       <c r="G43" s="1">
-        <v>800000</v>
+        <v>360000</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B44" s="7">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>167</v>
+      <c r="D44" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E44" s="7">
-        <v>10</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>167</v>
+        <v>8000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>800000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>800000</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B45" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E45" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B46" s="7">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E46" s="7">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="7">
         <v>1000</v>
       </c>
-      <c r="F46" s="7">
+      <c r="C47" s="7">
+        <v>46</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="7">
         <v>100000</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>100000</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20" customHeight="1">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="49" spans="2:3" ht="20" customHeight="1">
-      <c r="B49" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1">
+      <c r="C48" s="2"/>
     </row>
     <row r="50" spans="2:3" ht="20" customHeight="1">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="52" spans="2:3" ht="20" customHeight="1">
-      <c r="B52" s="7"/>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="2:3" ht="20" customHeight="1">
+      <c r="C51" s="2"/>
     </row>
     <row r="53" spans="2:3" ht="20" customHeight="1">
-      <c r="C53" s="2"/>
-    </row>
-    <row r="55" spans="2:3" ht="20" customHeight="1">
-      <c r="B55" s="7"/>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="2:3" ht="20" customHeight="1">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="56" spans="2:3" ht="20" customHeight="1">
+      <c r="B56" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6530,7 +6664,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6559,7 +6693,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>156</v>
@@ -6570,7 +6704,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6579,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -6591,12 +6725,12 @@
         <v>500</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6605,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -6617,12 +6751,12 @@
         <v>2000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6631,7 +6765,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -6643,7 +6777,7 @@
         <v>5000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -6657,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -6669,7 +6803,7 @@
         <v>13000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -6683,7 +6817,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
@@ -6695,7 +6829,7 @@
         <v>30000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -6709,7 +6843,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1">
         <v>650</v>
@@ -6721,7 +6855,7 @@
         <v>65000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -6735,7 +6869,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1">
         <v>1000</v>
@@ -6747,7 +6881,7 @@
         <v>100000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -6773,7 +6907,7 @@
         <v>150000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -6799,7 +6933,7 @@
         <v>15000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -6825,7 +6959,7 @@
         <v>45000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -6961,15 +7095,15 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B2" s="10">
         <v>0.2</v>
@@ -6980,7 +7114,7 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B3" s="12">
         <v>0.25</v>
@@ -6989,7 +7123,7 @@
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B4" s="12">
         <v>0.5</v>
@@ -6998,7 +7132,7 @@
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B5" s="12">
         <v>0.5</v>
@@ -7007,7 +7141,7 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B6" s="12">
         <v>0.5</v>
@@ -7016,7 +7150,7 @@
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B7" s="12">
         <v>0.5</v>
@@ -7025,7 +7159,7 @@
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
@@ -7034,7 +7168,7 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B9" s="12">
         <v>0.5</v>
@@ -7043,7 +7177,7 @@
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B10" s="12">
         <v>0.3</v>
@@ -7052,7 +7186,7 @@
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B11" s="12">
         <v>0.3</v>
@@ -7061,7 +7195,7 @@
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B12" s="12">
         <v>0.3</v>
@@ -7070,7 +7204,7 @@
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B13" s="12">
         <v>0.3</v>
@@ -7079,7 +7213,7 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B14" s="12">
         <v>0.2</v>
@@ -7088,7 +7222,7 @@
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B15" s="12">
         <v>0.2</v>
@@ -7097,7 +7231,7 @@
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B16" s="12">
         <v>0.2</v>
@@ -7106,7 +7240,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B17" s="12">
         <v>0.2</v>
@@ -7115,7 +7249,7 @@
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B18" s="12">
         <v>0.2</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="380" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="624">
+  <cellStyleXfs count="626">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1626,7 +1628,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="624">
+  <cellStyles count="626">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1941,6 +1943,7 @@
     <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2248,6 +2251,7 @@
     <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2699,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3447,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C29" s="2">
         <v>29</v>
@@ -3456,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="E29" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G29" s="1">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>168</v>
@@ -3681,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C38" s="1">
         <v>38</v>
@@ -3707,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="7">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C39" s="2">
         <v>39</v>
@@ -3733,7 +3737,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="7">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="1">
         <v>40</v>
@@ -5394,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="626">
+  <cellStyleXfs count="630">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1628,7 +1632,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="626">
+  <cellStyles count="630">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1944,6 +1948,8 @@
     <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2252,6 +2258,8 @@
     <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2703,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -5398,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6361,13 +6369,13 @@
         <v>44</v>
       </c>
       <c r="E37" s="7">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="G37" s="1">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>46</v>
@@ -6387,13 +6395,13 @@
         <v>44</v>
       </c>
       <c r="E38" s="7">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F38" s="1">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="G38" s="1">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>46</v>
@@ -6413,13 +6421,13 @@
         <v>44</v>
       </c>
       <c r="E39" s="7">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F39" s="1">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="1">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>164</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
+    <workbookView xWindow="860" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="630">
+  <cellStyleXfs count="634">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1632,7 +1636,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="630">
+  <cellStyles count="634">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1950,6 +1954,8 @@
     <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2260,6 +2266,8 @@
     <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5404,10 +5412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5447,779 +5455,779 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="2">
+        <v>212</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="7">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="7">
         <v>100</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>46</v>
+      <c r="F3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1">
-        <v>160</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16000</v>
-      </c>
       <c r="G5" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>102</v>
+      <c r="A6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B6" s="1">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
+      <c r="A7" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B7" s="1">
-        <v>500</v>
-      </c>
-      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G7" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="1">
-        <v>3300</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G8" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>105</v>
+      <c r="A9" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>106</v>
+      <c r="A10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
+        <v>500</v>
+      </c>
+      <c r="C10" s="7">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="G10" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
       <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>40</v>
+        <v>3300</v>
       </c>
       <c r="F11" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="G11" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>108</v>
+      <c r="A12" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B12" s="1">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="7">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>109</v>
+      <c r="A13" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="1">
-        <v>150</v>
-      </c>
-      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>110</v>
+      <c r="A14" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B14" s="1">
-        <v>500</v>
-      </c>
-      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G14" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="1">
-        <v>3300</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G15" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>112</v>
+      <c r="A16" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="C16" s="7">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1">
+        <v>500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="1">
+        <v>330000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>330000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F20" s="1">
         <v>1000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G20" s="1">
         <v>1000</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="1">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="1">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="1">
-        <v>160</v>
-      </c>
-      <c r="F19" s="1">
-        <v>16000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>16000</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1">
-        <v>150</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="1">
-        <v>400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>40000</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>117</v>
+      <c r="A21" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
-      </c>
-      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E21" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50</v>
+      </c>
+      <c r="C22" s="7">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E22" s="1">
-        <v>3300</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G22" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>119</v>
+      <c r="A23" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="2">
+        <v>150</v>
+      </c>
+      <c r="C23" s="7">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>120</v>
+      <c r="A24" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
+        <v>500</v>
+      </c>
+      <c r="C24" s="7">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="G24" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="7">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E25" s="1">
-        <v>40</v>
+        <v>3300</v>
       </c>
       <c r="F25" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="G25" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>122</v>
+      <c r="A26" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B26" s="1">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="7">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
+      <c r="A27" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B27" s="1">
-        <v>150</v>
-      </c>
-      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E27" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>124</v>
+      <c r="A28" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B28" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="7">
-        <v>1200</v>
+      <c r="E28" s="1">
+        <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="1">
-        <v>120000</v>
-      </c>
-      <c r="H28" s="6" t="s">
+        <v>4000</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1500</v>
+        <v>122</v>
+      </c>
+      <c r="B29" s="1">
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="7">
-        <v>3300</v>
+      <c r="E29" s="1">
+        <v>160</v>
       </c>
       <c r="F29" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G29" s="1">
-        <v>330000</v>
-      </c>
-      <c r="H29" s="6" t="s">
+        <v>16000</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.1</v>
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1">
+        <v>150</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="7">
-        <v>2</v>
+      <c r="D30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="1">
+        <v>400</v>
       </c>
       <c r="F30" s="1">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="1">
-        <v>200</v>
-      </c>
-      <c r="H30" s="6" t="s">
+        <v>40000</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="B31" s="1">
+        <v>500</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="7">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="F31" s="1">
-        <v>2000</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="1">
-        <v>2000</v>
+        <v>120000</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>169</v>
@@ -6227,10 +6235,10 @@
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="7">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -6239,13 +6247,13 @@
         <v>168</v>
       </c>
       <c r="E32" s="7">
-        <v>80</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="1">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="G32" s="1">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>169</v>
@@ -6253,25 +6261,25 @@
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="7">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" s="7">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>32000</v>
+        <v>200</v>
       </c>
       <c r="G33" s="1">
-        <v>32000</v>
+        <v>200</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>169</v>
@@ -6279,25 +6287,25 @@
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34" s="7">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E34" s="7">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="G34" s="1">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>169</v>
@@ -6305,10 +6313,10 @@
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="7">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -6317,13 +6325,13 @@
         <v>168</v>
       </c>
       <c r="E35" s="7">
-        <v>2400</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="1">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>169</v>
@@ -6331,218 +6339,218 @@
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B36" s="7">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E36" s="7">
-        <v>6600</v>
+        <v>320</v>
       </c>
       <c r="F36" s="1">
-        <v>660000</v>
+        <v>32000</v>
       </c>
       <c r="G36" s="1">
-        <v>660000</v>
+        <v>32000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B37" s="7">
-        <v>0.2</v>
+        <v>150</v>
       </c>
       <c r="C37" s="7">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>44</v>
+      <c r="D37" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E37" s="7">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="F37" s="1">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="G37" s="1">
-        <v>12000</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>46</v>
+        <v>80000</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B38" s="7">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="C38" s="7">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>44</v>
+      <c r="D38" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E38" s="7">
-        <v>240</v>
+        <v>2400</v>
       </c>
       <c r="F38" s="1">
-        <v>24000</v>
+        <v>240000</v>
       </c>
       <c r="G38" s="1">
-        <v>24000</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>46</v>
+        <v>240000</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B39" s="7">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="C39" s="7">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>44</v>
+      <c r="D39" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="E39" s="7">
-        <v>400</v>
+        <v>6600</v>
       </c>
       <c r="F39" s="1">
-        <v>40000</v>
+        <v>660000</v>
       </c>
       <c r="G39" s="1">
-        <v>40000</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>164</v>
+        <v>660000</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="E40" s="7">
-        <v>250</v>
-      </c>
-      <c r="F40" s="7">
-        <v>25000</v>
-      </c>
-      <c r="G40" s="7">
-        <v>25000</v>
+        <v>120</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>12000</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B41" s="7">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>43</v>
+      <c r="D41" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="7">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="G41" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>169</v>
+        <v>24000</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B42" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>43</v>
+      <c r="D42" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="7">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F42" s="1">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>169</v>
+        <v>40000</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B43" s="7">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>43</v>
+      <c r="D43" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E43" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F43" s="1">
-        <v>360000</v>
-      </c>
-      <c r="G43" s="1">
-        <v>360000</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>169</v>
+        <v>250</v>
+      </c>
+      <c r="F43" s="7">
+        <v>25000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="B44" s="7">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
@@ -6551,13 +6559,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="7">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="F44" s="1">
-        <v>800000</v>
+        <v>50000</v>
       </c>
       <c r="G44" s="1">
-        <v>800000</v>
+        <v>50000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>169</v>
@@ -6565,99 +6573,81 @@
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="B45" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>164</v>
+      <c r="D45" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E45" s="7">
-        <v>10</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>164</v>
+        <v>1500</v>
+      </c>
+      <c r="F45" s="1">
+        <v>150000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="B46" s="7">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>164</v>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E46" s="7">
-        <v>100</v>
-      </c>
-      <c r="F46" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G46" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>164</v>
+        <v>3600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>360000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>360000</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B47" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C47" s="7">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>164</v>
+      <c r="D47" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E47" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G47" s="7">
-        <v>100000</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="50" spans="2:3" ht="20" customHeight="1">
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="2:3" ht="20" customHeight="1">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="53" spans="2:3" ht="20" customHeight="1">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="2:3" ht="20" customHeight="1">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="56" spans="2:3" ht="20" customHeight="1">
-      <c r="B56" s="7"/>
+        <v>8000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>800000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>800000</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
+    <workbookView xWindow="7780" yWindow="0" windowWidth="27680" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="7">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C26" s="1">
         <v>26</v>
@@ -3415,7 +3415,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="7">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="C27" s="2">
         <v>27</v>
@@ -3441,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="7">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="C28" s="1">
         <v>28</v>
@@ -5414,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="0" windowWidth="27680" windowHeight="19860" tabRatio="381"/>
+    <workbookView xWindow="8020" yWindow="360" windowWidth="27680" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -553,18 +553,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -756,10 +748,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_1:6:9,dragonMaterials:redCrystal_1:6:9,dragonMaterials:blueCrystal_1:6:9,dragonMaterials:greenCrystal_1:6:9,dragonMaterials:runes_1:6:8,dragonMaterials:ingo_2:2:7,dragonMaterials:redSoul_2:2:7,dragonMaterials:blueSoul_2:2:7,dragonMaterials:greenSoul_2:2:7,dragonMaterials:redCrystal_2:2:7,dragonMaterials:blueCrystal_2:2:7,dragonMaterials:greenCrystal_2:2:7,dragonMaterials:runes_2:2:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:woodClass_3:5:16,resource:stoneClass_3:5:16,resource:ironClass_3:5:16,resource:foodClass_3:5:16,resource:coinClass_3:2:10,speedup:speedup_2:10:16,speedup:speedup_3:5:5,resource:casinoTokenClass_1:1:5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -777,6 +765,18 @@
   </si>
   <si>
     <t>casinoTokenClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,22|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,21|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,21|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:redCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:greenCrystal_2:6,16|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:blueCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:redSoul_2:6,dragonMaterials:redCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:greenSoul_2:6,dragonMaterials:greenCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:blueSoul_2:6,dragonMaterials:blueCrystal_2:6,14|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:blueCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:redSoul_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:greenSoul_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:blueSoul_3:2,dragonMaterials:blueCrystal_3:2,2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:redCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:greenCrystal_3:6,13|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:blueCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:redSoul_3:6,dragonMaterials:redCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:greenSoul_3:6,dragonMaterials:greenCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:blueSoul_3:6,dragonMaterials:blueCrystal_3:6,11|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:blueCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:redSoul_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:greenSoul_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:blueSoul_4:2,dragonMaterials:blueCrystal_4:2,5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="634">
+  <cellStyleXfs count="636">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1636,7 +1638,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="634">
+  <cellStyles count="636">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1956,6 +1958,7 @@
     <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2268,6 +2271,7 @@
     <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2720,7 +2724,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2765,7 +2769,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2791,13 +2795,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
@@ -2809,7 +2813,7 @@
         <v>150000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2817,13 +2821,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1">
         <v>5000</v>
@@ -2835,7 +2839,7 @@
         <v>500000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2843,7 +2847,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2869,13 +2873,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1">
         <v>500</v>
@@ -2887,7 +2891,7 @@
         <v>50000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2895,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2921,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3256,7 +3260,7 @@
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>42</v>
@@ -3285,13 +3289,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -3303,7 +3307,7 @@
         <v>5000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3311,13 +3315,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
@@ -3329,7 +3333,7 @@
         <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3337,13 +3341,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" s="1">
         <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
@@ -3355,7 +3359,7 @@
         <v>2000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3363,13 +3367,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2">
         <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E25" s="1">
         <v>500</v>
@@ -3381,7 +3385,7 @@
         <v>50000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3395,7 +3399,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
@@ -3407,7 +3411,7 @@
         <v>50000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3421,7 +3425,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1">
         <v>4000</v>
@@ -3433,7 +3437,7 @@
         <v>400000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3447,7 +3451,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1">
         <v>12000</v>
@@ -3459,7 +3463,7 @@
         <v>1200000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3473,7 +3477,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1">
         <v>60</v>
@@ -3485,7 +3489,7 @@
         <v>6000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3499,7 +3503,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E30" s="1">
         <v>440</v>
@@ -3511,7 +3515,7 @@
         <v>44000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3525,7 +3529,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E31" s="1">
         <v>1400</v>
@@ -3537,7 +3541,7 @@
         <v>140000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3551,7 +3555,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32" s="1">
         <v>500</v>
@@ -3563,7 +3567,7 @@
         <v>50000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3577,7 +3581,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" s="1">
         <v>4000</v>
@@ -3589,7 +3593,7 @@
         <v>400000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3603,7 +3607,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1">
         <v>12000</v>
@@ -3615,12 +3619,12 @@
         <v>1200000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B35" s="7">
         <v>20</v>
@@ -3629,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E35" s="1">
         <v>450</v>
@@ -3641,7 +3645,7 @@
         <v>45000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -3655,7 +3659,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E36" s="1">
         <v>900</v>
@@ -3667,7 +3671,7 @@
         <v>90000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -3681,7 +3685,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="1">
         <v>1500</v>
@@ -3693,7 +3697,7 @@
         <v>150000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -3707,7 +3711,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E38" s="1">
         <v>100</v>
@@ -3719,7 +3723,7 @@
         <v>10000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -3733,7 +3737,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E39" s="1">
         <v>600</v>
@@ -3745,7 +3749,7 @@
         <v>60000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -3759,7 +3763,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E40" s="1">
         <v>2000</v>
@@ -3771,7 +3775,7 @@
         <v>200000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3808,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -4443,13 +4447,13 @@
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -4472,13 +4476,13 @@
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -4501,13 +4505,13 @@
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -4710,7 +4714,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -4739,7 +4743,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -4768,7 +4772,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -4797,7 +4801,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -4826,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -4855,7 +4859,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
@@ -4971,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -5000,7 +5004,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
@@ -5029,7 +5033,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
@@ -5145,7 +5149,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -5174,7 +5178,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
@@ -5203,7 +5207,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
@@ -5232,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -5261,7 +5265,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -5290,7 +5294,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
@@ -5319,7 +5323,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
@@ -5348,7 +5352,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
@@ -5377,7 +5381,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
@@ -5455,7 +5459,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -5464,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="7">
         <v>10</v>
@@ -5476,12 +5480,12 @@
         <v>1000</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -5490,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -5502,12 +5506,12 @@
         <v>10000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="7">
         <v>1000</v>
@@ -5516,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="7">
         <v>1000</v>
@@ -5528,7 +5532,7 @@
         <v>100000</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -5932,7 +5936,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -5944,7 +5948,7 @@
         <v>1000</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -5958,7 +5962,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E21" s="1">
         <v>40</v>
@@ -5970,7 +5974,7 @@
         <v>4000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -5984,7 +5988,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1">
         <v>160</v>
@@ -5996,7 +6000,7 @@
         <v>16000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -6010,7 +6014,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1">
         <v>400</v>
@@ -6022,7 +6026,7 @@
         <v>40000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -6036,7 +6040,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1">
         <v>1200</v>
@@ -6048,7 +6052,7 @@
         <v>120000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -6062,7 +6066,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E25" s="1">
         <v>3300</v>
@@ -6074,7 +6078,7 @@
         <v>330000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -6088,7 +6092,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -6100,7 +6104,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -6114,7 +6118,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
@@ -6126,7 +6130,7 @@
         <v>1000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -6140,7 +6144,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1">
         <v>40</v>
@@ -6152,7 +6156,7 @@
         <v>4000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -6166,7 +6170,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1">
         <v>160</v>
@@ -6178,7 +6182,7 @@
         <v>16000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -6192,7 +6196,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E30" s="1">
         <v>400</v>
@@ -6204,7 +6208,7 @@
         <v>40000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -6218,7 +6222,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E31" s="7">
         <v>1200</v>
@@ -6230,7 +6234,7 @@
         <v>120000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -6244,7 +6248,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32" s="7">
         <v>3300</v>
@@ -6256,7 +6260,7 @@
         <v>330000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -6270,7 +6274,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -6282,7 +6286,7 @@
         <v>200</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -6296,7 +6300,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="7">
         <v>20</v>
@@ -6308,7 +6312,7 @@
         <v>2000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -6322,7 +6326,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E35" s="7">
         <v>80</v>
@@ -6334,7 +6338,7 @@
         <v>8000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -6348,7 +6352,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E36" s="7">
         <v>320</v>
@@ -6360,7 +6364,7 @@
         <v>32000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -6374,7 +6378,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="7">
         <v>800</v>
@@ -6386,7 +6390,7 @@
         <v>80000</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -6400,7 +6404,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E38" s="7">
         <v>2400</v>
@@ -6412,12 +6416,12 @@
         <v>240000</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" s="7">
         <v>1500</v>
@@ -6426,7 +6430,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E39" s="7">
         <v>6600</v>
@@ -6438,12 +6442,12 @@
         <v>660000</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" s="7">
         <v>0.2</v>
@@ -6469,7 +6473,7 @@
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B41" s="7">
         <v>0.5</v>
@@ -6495,7 +6499,7 @@
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -6516,12 +6520,12 @@
         <v>40000</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B43" s="7">
         <v>5</v>
@@ -6530,7 +6534,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E43" s="7">
         <v>250</v>
@@ -6542,7 +6546,7 @@
         <v>25000</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -6568,7 +6572,7 @@
         <v>50000</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
@@ -6594,7 +6598,7 @@
         <v>150000</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
@@ -6620,12 +6624,12 @@
         <v>360000</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B47" s="7">
         <v>500</v>
@@ -6646,7 +6650,7 @@
         <v>800000</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6710,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6715,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -6727,12 +6731,12 @@
         <v>500</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6741,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -6753,12 +6757,12 @@
         <v>2000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6767,7 +6771,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -6779,7 +6783,7 @@
         <v>5000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -6793,7 +6797,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -6805,7 +6809,7 @@
         <v>13000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -6819,7 +6823,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
@@ -6831,7 +6835,7 @@
         <v>30000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -6845,7 +6849,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1">
         <v>650</v>
@@ -6857,7 +6861,7 @@
         <v>65000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -6871,7 +6875,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1">
         <v>1000</v>
@@ -6883,7 +6887,7 @@
         <v>100000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -6909,7 +6913,7 @@
         <v>150000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -6935,7 +6939,7 @@
         <v>15000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -6961,7 +6965,7 @@
         <v>45000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -7097,15 +7101,15 @@
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="10">
         <v>0.2</v>
@@ -7116,7 +7120,7 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="12">
         <v>0.25</v>
@@ -7125,7 +7129,7 @@
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="12">
         <v>0.5</v>
@@ -7134,7 +7138,7 @@
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="12">
         <v>0.5</v>
@@ -7143,7 +7147,7 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="12">
         <v>0.5</v>
@@ -7152,7 +7156,7 @@
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="12">
         <v>0.5</v>
@@ -7161,7 +7165,7 @@
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
@@ -7170,7 +7174,7 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="12">
         <v>0.5</v>
@@ -7179,7 +7183,7 @@
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="12">
         <v>0.3</v>
@@ -7188,7 +7192,7 @@
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="12">
         <v>0.3</v>
@@ -7197,7 +7201,7 @@
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="12">
         <v>0.3</v>
@@ -7206,7 +7210,7 @@
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13" s="12">
         <v>0.3</v>
@@ -7215,7 +7219,7 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="12">
         <v>0.2</v>
@@ -7224,7 +7228,7 @@
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="12">
         <v>0.2</v>
@@ -7233,7 +7237,7 @@
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" s="12">
         <v>0.2</v>
@@ -7242,7 +7246,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="12">
         <v>0.2</v>
@@ -7251,7 +7255,7 @@
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" s="12">
         <v>0.2</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="360" windowWidth="27680" windowHeight="19860" tabRatio="381"/>
+    <workbookView xWindow="1460" yWindow="660" windowWidth="32620" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -768,15 +768,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,22|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,21|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,21|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,6|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:redCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:greenCrystal_2:6,16|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:blueCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:redSoul_2:6,dragonMaterials:redCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:greenSoul_2:6,dragonMaterials:greenCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:blueSoul_2:6,dragonMaterials:blueCrystal_2:6,14|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:blueCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:redSoul_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:greenSoul_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:blueSoul_3:2,dragonMaterials:blueCrystal_3:2,2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:redCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:greenCrystal_3:6,13|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:blueCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:redSoul_3:6,dragonMaterials:redCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:greenSoul_3:6,dragonMaterials:greenCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:blueSoul_3:6,dragonMaterials:blueCrystal_3:6,11|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:blueCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:redSoul_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:greenSoul_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:blueSoul_4:2,dragonMaterials:blueCrystal_4:2,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,28|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,27|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,27|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="636">
+  <cellStyleXfs count="680">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1638,7 +1682,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="636">
+  <cellStyles count="680">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1959,6 +2003,28 @@
     <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2272,6 +2338,28 @@
     <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2724,13 +2812,13 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="64.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="131.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
     <col min="5" max="7" width="20.6640625" style="1"/>
@@ -2769,7 +2857,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2781,10 +2869,10 @@
         <v>400</v>
       </c>
       <c r="F2" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>44</v>
@@ -2795,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2807,10 +2895,10 @@
         <v>1500</v>
       </c>
       <c r="F3" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="G3" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>160</v>
@@ -2821,7 +2909,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -2833,10 +2921,10 @@
         <v>5000</v>
       </c>
       <c r="F4" s="1">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="G4" s="1">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>161</v>
@@ -2859,10 +2947,10 @@
         <v>200</v>
       </c>
       <c r="F5" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>44</v>
@@ -2885,10 +2973,10 @@
         <v>500</v>
       </c>
       <c r="F6" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="G6" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>163</v>
@@ -2911,10 +2999,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>44</v>
@@ -2937,10 +3025,10 @@
         <v>2600</v>
       </c>
       <c r="F8" s="1">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G8" s="1">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>44</v>
@@ -2963,10 +3051,10 @@
         <v>50</v>
       </c>
       <c r="F9" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G9" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>44</v>
@@ -2989,10 +3077,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G10" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>44</v>
@@ -3015,10 +3103,10 @@
         <v>200</v>
       </c>
       <c r="F11" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>44</v>
@@ -3041,10 +3129,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G12" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>44</v>
@@ -3067,10 +3155,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>44</v>
@@ -3093,10 +3181,10 @@
         <v>250</v>
       </c>
       <c r="F14" s="1">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G14" s="1">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>44</v>
@@ -3119,10 +3207,10 @@
         <v>1500</v>
       </c>
       <c r="F15" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="G15" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>44</v>
@@ -3145,10 +3233,10 @@
         <v>4000</v>
       </c>
       <c r="F16" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="G16" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>44</v>
@@ -3171,10 +3259,10 @@
         <v>600</v>
       </c>
       <c r="F17" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G17" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>46</v>
@@ -3197,10 +3285,10 @@
         <v>1600</v>
       </c>
       <c r="F18" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="G18" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>46</v>
@@ -3223,10 +3311,10 @@
         <v>5000</v>
       </c>
       <c r="F19" s="1">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="G19" s="1">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>44</v>
@@ -3249,10 +3337,10 @@
         <v>20000</v>
       </c>
       <c r="F20" s="1">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G20" s="1">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>44</v>
@@ -3275,10 +3363,10 @@
         <v>100</v>
       </c>
       <c r="F21" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G21" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>46</v>
@@ -3301,10 +3389,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>167</v>
@@ -3327,10 +3415,10 @@
         <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>167</v>
@@ -3353,10 +3441,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>167</v>
@@ -3379,10 +3467,10 @@
         <v>500</v>
       </c>
       <c r="F25" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="G25" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>166</v>
@@ -3405,10 +3493,10 @@
         <v>500</v>
       </c>
       <c r="F26" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="G26" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>166</v>
@@ -3431,10 +3519,10 @@
         <v>4000</v>
       </c>
       <c r="F27" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="G27" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>166</v>
@@ -3457,10 +3545,10 @@
         <v>12000</v>
       </c>
       <c r="F28" s="1">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="G28" s="1">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>166</v>
@@ -3483,10 +3571,10 @@
         <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G29" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>166</v>
@@ -3509,10 +3597,10 @@
         <v>440</v>
       </c>
       <c r="F30" s="1">
-        <v>44000</v>
+        <v>22000</v>
       </c>
       <c r="G30" s="1">
-        <v>44000</v>
+        <v>22000</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>166</v>
@@ -3535,10 +3623,10 @@
         <v>1400</v>
       </c>
       <c r="F31" s="1">
-        <v>140000</v>
+        <v>70000</v>
       </c>
       <c r="G31" s="1">
-        <v>140000</v>
+        <v>70000</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>166</v>
@@ -3561,10 +3649,10 @@
         <v>500</v>
       </c>
       <c r="F32" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="G32" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>166</v>
@@ -3587,10 +3675,10 @@
         <v>4000</v>
       </c>
       <c r="F33" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="G33" s="1">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>166</v>
@@ -3613,10 +3701,10 @@
         <v>12000</v>
       </c>
       <c r="F34" s="1">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="G34" s="1">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>166</v>
@@ -3639,10 +3727,10 @@
         <v>450</v>
       </c>
       <c r="F35" s="1">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G35" s="1">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>166</v>
@@ -3665,10 +3753,10 @@
         <v>900</v>
       </c>
       <c r="F36" s="1">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G36" s="1">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>166</v>
@@ -3691,10 +3779,10 @@
         <v>1500</v>
       </c>
       <c r="F37" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="G37" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>166</v>
@@ -3717,10 +3805,10 @@
         <v>100</v>
       </c>
       <c r="F38" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G38" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>166</v>
@@ -3743,10 +3831,10 @@
         <v>600</v>
       </c>
       <c r="F39" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G39" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>166</v>
@@ -3769,10 +3857,10 @@
         <v>2000</v>
       </c>
       <c r="F40" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="G40" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>166</v>
@@ -3794,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3856,10 +3944,10 @@
         <v>600</v>
       </c>
       <c r="G2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>44</v>
@@ -3885,10 +3973,10 @@
         <v>1200</v>
       </c>
       <c r="G3" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H3" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>44</v>
@@ -3914,10 +4002,10 @@
         <v>2400</v>
       </c>
       <c r="G4" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="H4" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>44</v>
@@ -3943,10 +4031,10 @@
         <v>500</v>
       </c>
       <c r="G5" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H5" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>44</v>
@@ -3972,10 +4060,10 @@
         <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>44</v>
@@ -4001,10 +4089,10 @@
         <v>2000</v>
       </c>
       <c r="G7" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H7" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>44</v>
@@ -4030,10 +4118,10 @@
         <v>500</v>
       </c>
       <c r="G8" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H8" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>44</v>
@@ -4059,10 +4147,10 @@
         <v>1000</v>
       </c>
       <c r="G9" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H9" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
@@ -4088,10 +4176,10 @@
         <v>2000</v>
       </c>
       <c r="G10" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H10" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>44</v>
@@ -4117,10 +4205,10 @@
         <v>500</v>
       </c>
       <c r="G11" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H11" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
@@ -4146,10 +4234,10 @@
         <v>1000</v>
       </c>
       <c r="G12" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>44</v>
@@ -4175,10 +4263,10 @@
         <v>2000</v>
       </c>
       <c r="G13" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H13" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>44</v>
@@ -4204,10 +4292,10 @@
         <v>500</v>
       </c>
       <c r="G14" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H14" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>44</v>
@@ -4233,10 +4321,10 @@
         <v>1000</v>
       </c>
       <c r="G15" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H15" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>44</v>
@@ -4262,10 +4350,10 @@
         <v>2000</v>
       </c>
       <c r="G16" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H16" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>44</v>
@@ -4291,10 +4379,10 @@
         <v>500</v>
       </c>
       <c r="G17" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H17" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>44</v>
@@ -4320,10 +4408,10 @@
         <v>1000</v>
       </c>
       <c r="G18" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H18" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>44</v>
@@ -4349,10 +4437,10 @@
         <v>2000</v>
       </c>
       <c r="G19" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H19" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>44</v>
@@ -4378,10 +4466,10 @@
         <v>500</v>
       </c>
       <c r="G20" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H20" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>44</v>
@@ -4407,10 +4495,10 @@
         <v>1000</v>
       </c>
       <c r="G21" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H21" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>44</v>
@@ -4436,10 +4524,10 @@
         <v>2000</v>
       </c>
       <c r="G22" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H22" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>44</v>
@@ -4465,10 +4553,10 @@
         <v>600</v>
       </c>
       <c r="G23" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H23" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>44</v>
@@ -4494,10 +4582,10 @@
         <v>1200</v>
       </c>
       <c r="G24" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H24" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>44</v>
@@ -4523,10 +4611,10 @@
         <v>2400</v>
       </c>
       <c r="G25" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="H25" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>44</v>
@@ -4552,10 +4640,10 @@
         <v>500</v>
       </c>
       <c r="G26" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H26" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>44</v>
@@ -4581,10 +4669,10 @@
         <v>1000</v>
       </c>
       <c r="G27" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H27" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>44</v>
@@ -4610,10 +4698,10 @@
         <v>2000</v>
       </c>
       <c r="G28" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H28" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>44</v>
@@ -4639,10 +4727,10 @@
         <v>800</v>
       </c>
       <c r="G29" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H29" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>44</v>
@@ -4668,10 +4756,10 @@
         <v>1600</v>
       </c>
       <c r="G30" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="H30" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>44</v>
@@ -4697,10 +4785,10 @@
         <v>3200</v>
       </c>
       <c r="G31" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="H31" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>44</v>
@@ -4726,10 +4814,10 @@
         <v>800</v>
       </c>
       <c r="G32" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H32" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>44</v>
@@ -4755,10 +4843,10 @@
         <v>1600</v>
       </c>
       <c r="G33" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="H33" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>44</v>
@@ -4784,10 +4872,10 @@
         <v>3200</v>
       </c>
       <c r="G34" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="H34" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>44</v>
@@ -4813,10 +4901,10 @@
         <v>500</v>
       </c>
       <c r="G35" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H35" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>44</v>
@@ -4842,10 +4930,10 @@
         <v>1000</v>
       </c>
       <c r="G36" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H36" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>44</v>
@@ -4871,10 +4959,10 @@
         <v>2000</v>
       </c>
       <c r="G37" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H37" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>44</v>
@@ -4900,10 +4988,10 @@
         <v>600</v>
       </c>
       <c r="G38" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H38" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>44</v>
@@ -4929,10 +5017,10 @@
         <v>1200</v>
       </c>
       <c r="G39" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H39" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>44</v>
@@ -4958,10 +5046,10 @@
         <v>2400</v>
       </c>
       <c r="G40" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="H40" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>44</v>
@@ -4987,10 +5075,10 @@
         <v>800</v>
       </c>
       <c r="G41" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H41" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>44</v>
@@ -5016,10 +5104,10 @@
         <v>1600</v>
       </c>
       <c r="G42" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="H42" s="1">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>44</v>
@@ -5045,10 +5133,10 @@
         <v>3200</v>
       </c>
       <c r="G43" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="H43" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>44</v>
@@ -5074,10 +5162,10 @@
         <v>500</v>
       </c>
       <c r="G44" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H44" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>44</v>
@@ -5103,10 +5191,10 @@
         <v>1000</v>
       </c>
       <c r="G45" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H45" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -5132,10 +5220,10 @@
         <v>2000</v>
       </c>
       <c r="G46" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H46" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>44</v>
@@ -5161,10 +5249,10 @@
         <v>500</v>
       </c>
       <c r="G47" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H47" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>44</v>
@@ -5190,10 +5278,10 @@
         <v>1000</v>
       </c>
       <c r="G48" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H48" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>44</v>
@@ -5219,10 +5307,10 @@
         <v>2000</v>
       </c>
       <c r="G49" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H49" s="1">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>44</v>
@@ -5248,10 +5336,10 @@
         <v>550</v>
       </c>
       <c r="G50" s="1">
-        <v>55000</v>
+        <v>27500</v>
       </c>
       <c r="H50" s="1">
-        <v>55000</v>
+        <v>27500</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>44</v>
@@ -5277,10 +5365,10 @@
         <v>1100</v>
       </c>
       <c r="G51" s="1">
-        <v>110000</v>
+        <v>55000</v>
       </c>
       <c r="H51" s="1">
-        <v>110000</v>
+        <v>55000</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>44</v>
@@ -5306,10 +5394,10 @@
         <v>2200</v>
       </c>
       <c r="G52" s="1">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="H52" s="1">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>44</v>
@@ -5335,10 +5423,10 @@
         <v>600</v>
       </c>
       <c r="G53" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H53" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>44</v>
@@ -5364,10 +5452,10 @@
         <v>1200</v>
       </c>
       <c r="G54" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H54" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>44</v>
@@ -5393,10 +5481,10 @@
         <v>2400</v>
       </c>
       <c r="G55" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="H55" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>44</v>
@@ -5418,8 +5506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5474,10 +5562,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G2" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>162</v>
@@ -5500,10 +5588,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G3" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>162</v>
@@ -5526,10 +5614,10 @@
         <v>1000</v>
       </c>
       <c r="F4" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>162</v>
@@ -5552,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>46</v>
@@ -5578,10 +5666,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G6" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>46</v>
@@ -5604,10 +5692,10 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G7" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>46</v>
@@ -5630,10 +5718,10 @@
         <v>160</v>
       </c>
       <c r="F8" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="G8" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>46</v>
@@ -5656,10 +5744,10 @@
         <v>400</v>
       </c>
       <c r="F9" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>46</v>
@@ -5682,10 +5770,10 @@
         <v>1200</v>
       </c>
       <c r="F10" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G10" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>46</v>
@@ -5708,10 +5796,10 @@
         <v>3300</v>
       </c>
       <c r="F11" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="G11" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>46</v>
@@ -5734,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>46</v>
@@ -5760,10 +5848,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>46</v>
@@ -5786,10 +5874,10 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>46</v>
@@ -5812,10 +5900,10 @@
         <v>160</v>
       </c>
       <c r="F15" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>46</v>
@@ -5838,10 +5926,10 @@
         <v>400</v>
       </c>
       <c r="F16" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>46</v>
@@ -5864,10 +5952,10 @@
         <v>1200</v>
       </c>
       <c r="F17" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>46</v>
@@ -5890,10 +5978,10 @@
         <v>3300</v>
       </c>
       <c r="F18" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="G18" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>46</v>
@@ -5916,10 +6004,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>46</v>
@@ -5942,10 +6030,10 @@
         <v>10</v>
       </c>
       <c r="F20" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G20" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>167</v>
@@ -5968,10 +6056,10 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>167</v>
@@ -5994,10 +6082,10 @@
         <v>160</v>
       </c>
       <c r="F22" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="G22" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>167</v>
@@ -6020,10 +6108,10 @@
         <v>400</v>
       </c>
       <c r="F23" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>167</v>
@@ -6046,10 +6134,10 @@
         <v>1200</v>
       </c>
       <c r="F24" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>167</v>
@@ -6072,10 +6160,10 @@
         <v>3300</v>
       </c>
       <c r="F25" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="G25" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>167</v>
@@ -6098,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>167</v>
@@ -6124,10 +6212,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G27" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>167</v>
@@ -6150,10 +6238,10 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>167</v>
@@ -6176,10 +6264,10 @@
         <v>160</v>
       </c>
       <c r="F29" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="G29" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>167</v>
@@ -6202,10 +6290,10 @@
         <v>400</v>
       </c>
       <c r="F30" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G30" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>167</v>
@@ -6228,10 +6316,10 @@
         <v>1200</v>
       </c>
       <c r="F31" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G31" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>167</v>
@@ -6254,10 +6342,10 @@
         <v>3300</v>
       </c>
       <c r="F32" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="G32" s="1">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>167</v>
@@ -6280,10 +6368,10 @@
         <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>167</v>
@@ -6306,10 +6394,10 @@
         <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G34" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>167</v>
@@ -6332,10 +6420,10 @@
         <v>80</v>
       </c>
       <c r="F35" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>167</v>
@@ -6358,10 +6446,10 @@
         <v>320</v>
       </c>
       <c r="F36" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="G36" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>167</v>
@@ -6384,10 +6472,10 @@
         <v>800</v>
       </c>
       <c r="F37" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>167</v>
@@ -6410,10 +6498,10 @@
         <v>2400</v>
       </c>
       <c r="F38" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G38" s="1">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>167</v>
@@ -6436,10 +6524,10 @@
         <v>6600</v>
       </c>
       <c r="F39" s="1">
-        <v>660000</v>
+        <v>330000</v>
       </c>
       <c r="G39" s="1">
-        <v>660000</v>
+        <v>330000</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>183</v>
@@ -6462,10 +6550,10 @@
         <v>120</v>
       </c>
       <c r="F40" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="G40" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>46</v>
@@ -6488,10 +6576,10 @@
         <v>240</v>
       </c>
       <c r="F41" s="1">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="G41" s="1">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>46</v>
@@ -6514,10 +6602,10 @@
         <v>400</v>
       </c>
       <c r="F42" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G42" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>162</v>
@@ -6540,10 +6628,10 @@
         <v>250</v>
       </c>
       <c r="F43" s="7">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G43" s="7">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>162</v>
@@ -6566,10 +6654,10 @@
         <v>500</v>
       </c>
       <c r="F44" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="G44" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>167</v>
@@ -6592,10 +6680,10 @@
         <v>1500</v>
       </c>
       <c r="F45" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="G45" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>167</v>
@@ -6618,10 +6706,10 @@
         <v>3600</v>
       </c>
       <c r="F46" s="1">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="G46" s="1">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>167</v>
@@ -6644,10 +6732,10 @@
         <v>8000</v>
       </c>
       <c r="F47" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="G47" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>167</v>
@@ -6670,7 +6758,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H18" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6725,10 +6813,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G2" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>167</v>
@@ -6751,10 +6839,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>167</v>
@@ -6777,10 +6865,10 @@
         <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G4" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>167</v>
@@ -6803,10 +6891,10 @@
         <v>130</v>
       </c>
       <c r="F5" s="1">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="G5" s="1">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>167</v>
@@ -6829,10 +6917,10 @@
         <v>300</v>
       </c>
       <c r="F6" s="1">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="1">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>167</v>
@@ -6855,10 +6943,10 @@
         <v>650</v>
       </c>
       <c r="F7" s="1">
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="G7" s="1">
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>167</v>
@@ -6881,10 +6969,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G8" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>167</v>
@@ -6907,10 +6995,10 @@
         <v>1500</v>
       </c>
       <c r="F9" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="G9" s="1">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>167</v>
@@ -6933,10 +7021,10 @@
         <v>150</v>
       </c>
       <c r="F10" s="1">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="G10" s="1">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>167</v>
@@ -6959,10 +7047,10 @@
         <v>450</v>
       </c>
       <c r="F11" s="1">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G11" s="1">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>167</v>
@@ -7088,7 +7176,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="660" windowWidth="32620" windowHeight="19860" tabRatio="381"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="32620" windowHeight="19860" tabRatio="381" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -2811,7 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6757,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="A2:H18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7018,7 +7018,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1">
         <v>7500</v>
@@ -7044,7 +7044,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1">
         <v>22500</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="32620" windowHeight="19860" tabRatio="381" activeTab="3"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="32620" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="680">
+  <cellStyleXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1682,7 +1684,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="680">
+  <cellStyles count="682">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2025,6 +2027,7 @@
     <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2360,6 +2363,7 @@
     <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2811,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3464,13 +3468,13 @@
         <v>166</v>
       </c>
       <c r="E25" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F25" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G25" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>166</v>
@@ -5506,7 +5510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -6757,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="32620" windowHeight="19860" tabRatio="381"/>
+    <workbookView xWindow="1720" yWindow="380" windowWidth="32620" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="223">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -777,6 +777,14 @@
   </si>
   <si>
     <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,28|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,27|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,27|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepScroll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +965,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="682">
+  <cellStyleXfs count="716">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1644,8 +1652,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1683,8 +1725,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="682">
+  <cellStyles count="716">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2028,6 +2079,23 @@
     <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2364,6 +2432,23 @@
     <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2813,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3868,6 +3953,32 @@
       </c>
       <c r="H40" s="5" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A41" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="13">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="13">
+        <v>50</v>
+      </c>
+      <c r="F41" s="13">
+        <v>250</v>
+      </c>
+      <c r="G41" s="13">
+        <v>250</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +5622,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="380" windowWidth="32620" windowHeight="19860" tabRatio="381"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="37860" windowHeight="20060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -2900,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3215,13 +3215,13 @@
         <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G12" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>44</v>
@@ -3241,13 +3241,13 @@
         <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>44</v>
@@ -3997,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -5621,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="37860" windowHeight="20060" tabRatio="381"/>
+    <workbookView xWindow="4500" yWindow="21920" windowWidth="25600" windowHeight="16060" tabRatio="381" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -683,9 +683,6 @@
   <si>
     <t>FLOAT_effect2</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
   </si>
   <si>
     <t>quarterMaster</t>
@@ -886,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -945,19 +942,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -965,7 +949,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="716">
+  <cellStyleXfs count="722">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1686,8 +1670,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1716,13 +1706,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,7 +1722,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="716">
+  <cellStyles count="722">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2096,6 +2083,9 @@
     <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2449,6 +2439,9 @@
     <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2900,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12:G13"/>
     </sheetView>
   </sheetViews>
@@ -2946,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2972,7 +2965,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2998,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -3024,7 +3017,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3050,7 +3043,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -3076,7 +3069,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -3102,7 +3095,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3955,30 +3948,30 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="20" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="12">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="12">
+        <v>50</v>
+      </c>
+      <c r="F41" s="12">
+        <v>250</v>
+      </c>
+      <c r="G41" s="12">
+        <v>250</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="13">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="13">
-        <v>50</v>
-      </c>
-      <c r="F41" s="13">
-        <v>250</v>
-      </c>
-      <c r="G41" s="13">
-        <v>250</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +5655,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -5688,7 +5681,7 @@
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -5714,7 +5707,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="7">
         <v>1000</v>
@@ -6832,7 +6825,7 @@
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="7">
         <v>500</v>
@@ -7288,10 +7281,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7311,159 +7304,148 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="11">
         <v>0.2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="11">
         <v>0.2</v>
       </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="11">
         <v>0.2</v>
       </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="11">
         <v>0.2</v>
       </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="12"/>
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="21920" windowWidth="25600" windowHeight="16060" tabRatio="381" activeTab="4"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="37660" windowHeight="20220" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -949,7 +949,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="722">
+  <cellStyleXfs count="732">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -964,6 +964,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1722,7 +1732,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="722">
+  <cellStyles count="732">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2086,6 +2096,11 @@
     <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2442,6 +2457,11 @@
     <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2893,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3208,13 +3228,13 @@
         <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>44</v>
@@ -3234,13 +3254,13 @@
         <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>44</v>
@@ -3520,13 +3540,13 @@
         <v>166</v>
       </c>
       <c r="E24" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>167</v>
@@ -3546,13 +3566,13 @@
         <v>166</v>
       </c>
       <c r="E25" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F25" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G25" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>166</v>
@@ -3991,7 +4011,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7283,7 +7303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="37660" windowHeight="20220" tabRatio="381"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="227">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -782,6 +782,26 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +969,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="732">
+  <cellStyleXfs count="740">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -964,6 +984,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1732,7 +1760,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="732">
+  <cellStyles count="740">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2101,6 +2129,10 @@
     <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2462,6 +2494,10 @@
     <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2911,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3992,6 +4028,84 @@
       </c>
       <c r="H41" s="14" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
+    <workbookView xWindow="1760" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -797,11 +797,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +981,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="740">
+  <cellStyleXfs count="764">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1714,8 +1726,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1759,8 +1795,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="740">
+  <cellStyles count="764">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2133,6 +2172,18 @@
     <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2498,6 +2549,18 @@
     <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2947,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4034,79 +4097,82 @@
       <c r="A42" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>219</v>
+      <c r="B42" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="C42" s="1">
         <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="1">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>219</v>
+      <c r="B43" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="C43" s="2">
         <v>43</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="1">
+        <v>360</v>
+      </c>
+      <c r="F43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>219</v>
+      <c r="B44" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="C44" s="1">
         <v>44</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="1">
+        <v>750</v>
+      </c>
+      <c r="F44" s="1">
+        <v>37500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>37500</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>226</v>
-      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1">
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5748,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
+    <workbookView xWindow="600" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,14 +3012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="131.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="147.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
     <col min="5" max="7" width="20.6640625" style="1"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3847,7 +3847,7 @@
         <v>166</v>
       </c>
       <c r="E32" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="1">
         <v>25000</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3873,7 +3873,7 @@
         <v>166</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="1">
         <v>200000</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>
@@ -3899,7 +3899,7 @@
         <v>166</v>
       </c>
       <c r="E34" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F34" s="1">
         <v>600000</v>

--- a/datas/shared/Items.xlsx
+++ b/datas/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
+    <workbookView xWindow="920" yWindow="360" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>
